--- a/data/raw/election/voters-age-sex-education/2023/Samsun.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Samsun.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-17:23:23-65568860119" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="46">
   <si>
     <t>Samsun</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Yakakent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
   <si>
     <t>19 Mayıs</t>
@@ -684,7 +690,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -698,16 +704,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1035,10 +1050,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N446"/>
+  <dimension ref="A1:N448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="A421" sqref="A421:B421"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="S427" sqref="S427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,24 +1069,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1172,7 +1187,7 @@
         <v>17</v>
       </c>
       <c r="M6" s="5">
-        <v>1.161</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1211,7 +1226,7 @@
         <v>15</v>
       </c>
       <c r="M7" s="5">
-        <v>1.1439999999999999</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1251,7 +1266,7 @@
       <c r="L8" s="4">
         <v>1</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>706</v>
       </c>
     </row>
@@ -1290,7 +1305,7 @@
       <c r="L9" s="4">
         <v>2</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>598</v>
       </c>
     </row>
@@ -1331,7 +1346,7 @@
       <c r="L10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>571</v>
       </c>
     </row>
@@ -1370,7 +1385,7 @@
       <c r="L11" s="4">
         <v>1</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>511</v>
       </c>
     </row>
@@ -1411,7 +1426,7 @@
       <c r="L12" s="4">
         <v>1</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>583</v>
       </c>
     </row>
@@ -1450,7 +1465,7 @@
       <c r="L13" s="4">
         <v>3</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>611</v>
       </c>
     </row>
@@ -1491,7 +1506,7 @@
       <c r="L14" s="4">
         <v>2</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>633</v>
       </c>
     </row>
@@ -1530,7 +1545,7 @@
       <c r="L15" s="4">
         <v>2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>666</v>
       </c>
     </row>
@@ -1571,7 +1586,7 @@
       <c r="L16" s="4">
         <v>2</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>738</v>
       </c>
     </row>
@@ -1610,7 +1625,7 @@
       <c r="L17" s="4">
         <v>4</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>777</v>
       </c>
     </row>
@@ -1651,7 +1666,7 @@
       <c r="L18" s="4">
         <v>2</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>879</v>
       </c>
     </row>
@@ -1690,7 +1705,7 @@
       <c r="L19" s="4">
         <v>3</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>935</v>
       </c>
     </row>
@@ -1732,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="M20" s="5">
-        <v>1.0660000000000001</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1771,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="M21" s="5">
-        <v>1.026</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1812,7 +1827,7 @@
         <v>7</v>
       </c>
       <c r="M22" s="5">
-        <v>1.0649999999999999</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1851,7 +1866,7 @@
         <v>8</v>
       </c>
       <c r="M23" s="5">
-        <v>1.038</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1891,7 +1906,7 @@
       <c r="L24" s="4">
         <v>10</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>913</v>
       </c>
     </row>
@@ -1930,7 +1945,7 @@
       <c r="L25" s="4">
         <v>4</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <v>867</v>
       </c>
     </row>
@@ -1971,7 +1986,7 @@
       <c r="L26" s="4">
         <v>5</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>686</v>
       </c>
     </row>
@@ -2010,7 +2025,7 @@
       <c r="L27" s="4">
         <v>7</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>804</v>
       </c>
     </row>
@@ -2051,7 +2066,7 @@
       <c r="L28" s="4">
         <v>6</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>959</v>
       </c>
     </row>
@@ -2091,46 +2106,46 @@
         <v>5</v>
       </c>
       <c r="M29" s="5">
-        <v>1.347</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
         <v>509</v>
       </c>
       <c r="D30" s="5">
-        <v>2.0710000000000002</v>
+        <v>2071</v>
       </c>
       <c r="E30" s="5">
-        <v>6.9470000000000001</v>
+        <v>6947</v>
       </c>
       <c r="F30" s="5">
-        <v>1.9730000000000001</v>
+        <v>1973</v>
       </c>
       <c r="G30" s="5">
-        <v>2.5310000000000001</v>
+        <v>2531</v>
       </c>
       <c r="H30" s="5">
-        <v>3.7570000000000001</v>
+        <v>3757</v>
       </c>
       <c r="I30" s="5">
-        <v>2.2290000000000001</v>
-      </c>
-      <c r="J30" s="5">
+        <v>2229</v>
+      </c>
+      <c r="J30" s="6">
         <v>141</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>19</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>107</v>
       </c>
       <c r="M30" s="5">
-        <v>20.283999999999999</v>
+        <v>20284</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2209,7 +2224,7 @@
       <c r="L32" s="4">
         <v>17</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="6">
         <v>990</v>
       </c>
     </row>
@@ -2248,7 +2263,7 @@
       <c r="L33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="6">
         <v>922</v>
       </c>
     </row>
@@ -2289,7 +2304,7 @@
       <c r="L34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="6">
         <v>615</v>
       </c>
     </row>
@@ -2328,7 +2343,7 @@
       <c r="L35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="6">
         <v>564</v>
       </c>
     </row>
@@ -2369,7 +2384,7 @@
       <c r="L36" s="4">
         <v>1</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="6">
         <v>622</v>
       </c>
     </row>
@@ -2408,7 +2423,7 @@
       <c r="L37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="6">
         <v>508</v>
       </c>
     </row>
@@ -2449,7 +2464,7 @@
       <c r="L38" s="4">
         <v>4</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="6">
         <v>503</v>
       </c>
     </row>
@@ -2488,7 +2503,7 @@
       <c r="L39" s="4">
         <v>2</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="6">
         <v>485</v>
       </c>
     </row>
@@ -2529,7 +2544,7 @@
       <c r="L40" s="4">
         <v>2</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="6">
         <v>541</v>
       </c>
     </row>
@@ -2568,7 +2583,7 @@
       <c r="L41" s="4">
         <v>2</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="6">
         <v>537</v>
       </c>
     </row>
@@ -2609,7 +2624,7 @@
       <c r="L42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="6">
         <v>506</v>
       </c>
     </row>
@@ -2648,7 +2663,7 @@
       <c r="L43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="6">
         <v>503</v>
       </c>
     </row>
@@ -2689,7 +2704,7 @@
       <c r="L44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="6">
         <v>432</v>
       </c>
     </row>
@@ -2728,7 +2743,7 @@
       <c r="L45" s="4">
         <v>1</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="6">
         <v>479</v>
       </c>
     </row>
@@ -2769,7 +2784,7 @@
       <c r="L46" s="4">
         <v>2</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="6">
         <v>468</v>
       </c>
     </row>
@@ -2808,7 +2823,7 @@
       <c r="L47" s="4">
         <v>1</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="6">
         <v>505</v>
       </c>
     </row>
@@ -2849,7 +2864,7 @@
       <c r="L48" s="4">
         <v>2</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="6">
         <v>323</v>
       </c>
     </row>
@@ -2888,7 +2903,7 @@
       <c r="L49" s="4">
         <v>3</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="6">
         <v>361</v>
       </c>
     </row>
@@ -2929,7 +2944,7 @@
       <c r="L50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="6">
         <v>331</v>
       </c>
     </row>
@@ -2968,7 +2983,7 @@
       <c r="L51" s="4">
         <v>1</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="6">
         <v>339</v>
       </c>
     </row>
@@ -3009,7 +3024,7 @@
       <c r="L52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="6">
         <v>231</v>
       </c>
     </row>
@@ -3048,7 +3063,7 @@
       <c r="L53" s="4">
         <v>2</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="6">
         <v>297</v>
       </c>
     </row>
@@ -3089,7 +3104,7 @@
       <c r="L54" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="6">
         <v>298</v>
       </c>
     </row>
@@ -3128,7 +3143,7 @@
       <c r="L55" s="4">
         <v>2</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="6">
         <v>443</v>
       </c>
     </row>
@@ -3136,39 +3151,39 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="6">
         <v>263</v>
       </c>
       <c r="D56" s="5">
-        <v>1.3859999999999999</v>
+        <v>1386</v>
       </c>
       <c r="E56" s="5">
-        <v>3.4990000000000001</v>
+        <v>3499</v>
       </c>
       <c r="F56" s="5">
-        <v>1.4630000000000001</v>
+        <v>1463</v>
       </c>
       <c r="G56" s="5">
-        <v>2.169</v>
+        <v>2169</v>
       </c>
       <c r="H56" s="5">
-        <v>2.2610000000000001</v>
-      </c>
-      <c r="I56" s="5">
+        <v>2261</v>
+      </c>
+      <c r="I56" s="6">
         <v>680</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="6">
         <v>29</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="6">
         <v>11</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="6">
         <v>42</v>
       </c>
       <c r="M56" s="5">
-        <v>11.803000000000001</v>
+        <v>11803</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3229,14 +3244,14 @@
       <c r="F58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="4">
-        <v>1.278</v>
-      </c>
-      <c r="H58" s="4">
-        <v>8.2439999999999998</v>
-      </c>
-      <c r="I58" s="4">
-        <v>1.633</v>
+      <c r="G58" s="9">
+        <v>1278</v>
+      </c>
+      <c r="H58" s="9">
+        <v>8244</v>
+      </c>
+      <c r="I58" s="9">
+        <v>1633</v>
       </c>
       <c r="J58" s="4">
         <v>36</v>
@@ -3248,7 +3263,7 @@
         <v>84</v>
       </c>
       <c r="M58" s="5">
-        <v>11.305999999999999</v>
+        <v>11306</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3271,11 +3286,11 @@
       <c r="G59" s="4">
         <v>962</v>
       </c>
-      <c r="H59" s="4">
-        <v>7.2619999999999996</v>
-      </c>
-      <c r="I59" s="4">
-        <v>2.4820000000000002</v>
+      <c r="H59" s="9">
+        <v>7262</v>
+      </c>
+      <c r="I59" s="9">
+        <v>2482</v>
       </c>
       <c r="J59" s="4">
         <v>63</v>
@@ -3287,7 +3302,7 @@
         <v>58</v>
       </c>
       <c r="M59" s="5">
-        <v>10.853999999999999</v>
+        <v>10854</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3312,11 +3327,11 @@
       <c r="G60" s="4">
         <v>790</v>
       </c>
-      <c r="H60" s="4">
-        <v>2.2949999999999999</v>
-      </c>
-      <c r="I60" s="4">
-        <v>4.3109999999999999</v>
+      <c r="H60" s="9">
+        <v>2295</v>
+      </c>
+      <c r="I60" s="9">
+        <v>4311</v>
       </c>
       <c r="J60" s="4">
         <v>642</v>
@@ -3328,7 +3343,7 @@
         <v>65</v>
       </c>
       <c r="M60" s="5">
-        <v>8.1329999999999991</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3351,11 +3366,11 @@
       <c r="G61" s="4">
         <v>599</v>
       </c>
-      <c r="H61" s="4">
-        <v>1.8220000000000001</v>
-      </c>
-      <c r="I61" s="4">
-        <v>5.6079999999999997</v>
+      <c r="H61" s="9">
+        <v>1822</v>
+      </c>
+      <c r="I61" s="9">
+        <v>5608</v>
       </c>
       <c r="J61" s="4">
         <v>908</v>
@@ -3367,7 +3382,7 @@
         <v>54</v>
       </c>
       <c r="M61" s="5">
-        <v>9.0540000000000003</v>
+        <v>9054</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3392,11 +3407,11 @@
       <c r="G62" s="4">
         <v>372</v>
       </c>
-      <c r="H62" s="4">
-        <v>2.1549999999999998</v>
-      </c>
-      <c r="I62" s="4">
-        <v>4.4779999999999998</v>
+      <c r="H62" s="9">
+        <v>2155</v>
+      </c>
+      <c r="I62" s="9">
+        <v>4478</v>
       </c>
       <c r="J62" s="4">
         <v>798</v>
@@ -3408,7 +3423,7 @@
         <v>71</v>
       </c>
       <c r="M62" s="5">
-        <v>8.34</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3431,14 +3446,14 @@
       <c r="G63" s="4">
         <v>364</v>
       </c>
-      <c r="H63" s="4">
-        <v>1.956</v>
-      </c>
-      <c r="I63" s="4">
-        <v>5.1849999999999996</v>
-      </c>
-      <c r="J63" s="4">
-        <v>1.014</v>
+      <c r="H63" s="9">
+        <v>1956</v>
+      </c>
+      <c r="I63" s="9">
+        <v>5185</v>
+      </c>
+      <c r="J63" s="9">
+        <v>1014</v>
       </c>
       <c r="K63" s="4">
         <v>64</v>
@@ -3447,7 +3462,7 @@
         <v>74</v>
       </c>
       <c r="M63" s="5">
-        <v>9.1180000000000003</v>
+        <v>9118</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3472,11 +3487,11 @@
       <c r="G64" s="4">
         <v>333</v>
       </c>
-      <c r="H64" s="4">
-        <v>2.4249999999999998</v>
-      </c>
-      <c r="I64" s="4">
-        <v>4.2220000000000004</v>
+      <c r="H64" s="9">
+        <v>2425</v>
+      </c>
+      <c r="I64" s="9">
+        <v>4222</v>
       </c>
       <c r="J64" s="4">
         <v>904</v>
@@ -3488,7 +3503,7 @@
         <v>50</v>
       </c>
       <c r="M64" s="5">
-        <v>8.7309999999999999</v>
+        <v>8731</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3511,11 +3526,11 @@
       <c r="G65" s="4">
         <v>415</v>
       </c>
-      <c r="H65" s="4">
-        <v>2.4470000000000001</v>
-      </c>
-      <c r="I65" s="4">
-        <v>4.3949999999999996</v>
+      <c r="H65" s="9">
+        <v>2447</v>
+      </c>
+      <c r="I65" s="9">
+        <v>4395</v>
       </c>
       <c r="J65" s="4">
         <v>913</v>
@@ -3527,7 +3542,7 @@
         <v>82</v>
       </c>
       <c r="M65" s="5">
-        <v>9.33</v>
+        <v>9330</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3552,11 +3567,11 @@
       <c r="G66" s="4">
         <v>640</v>
       </c>
-      <c r="H66" s="4">
-        <v>2.4569999999999999</v>
-      </c>
-      <c r="I66" s="4">
-        <v>3.65</v>
+      <c r="H66" s="9">
+        <v>2457</v>
+      </c>
+      <c r="I66" s="9">
+        <v>3650</v>
       </c>
       <c r="J66" s="4">
         <v>890</v>
@@ -3568,7 +3583,7 @@
         <v>80</v>
       </c>
       <c r="M66" s="5">
-        <v>8.77</v>
+        <v>8770</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3591,11 +3606,11 @@
       <c r="G67" s="4">
         <v>776</v>
       </c>
-      <c r="H67" s="4">
-        <v>3</v>
-      </c>
-      <c r="I67" s="4">
-        <v>3.9329999999999998</v>
+      <c r="H67" s="9">
+        <v>3000</v>
+      </c>
+      <c r="I67" s="9">
+        <v>3933</v>
       </c>
       <c r="J67" s="4">
         <v>821</v>
@@ -3607,7 +3622,7 @@
         <v>77</v>
       </c>
       <c r="M67" s="5">
-        <v>10.192</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3632,11 +3647,11 @@
       <c r="G68" s="4">
         <v>581</v>
       </c>
-      <c r="H68" s="4">
-        <v>2.1749999999999998</v>
-      </c>
-      <c r="I68" s="4">
-        <v>3.3719999999999999</v>
+      <c r="H68" s="9">
+        <v>2175</v>
+      </c>
+      <c r="I68" s="9">
+        <v>3372</v>
       </c>
       <c r="J68" s="4">
         <v>598</v>
@@ -3648,7 +3663,7 @@
         <v>84</v>
       </c>
       <c r="M68" s="5">
-        <v>8.1159999999999997</v>
+        <v>8116</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3662,8 +3677,8 @@
       <c r="D69" s="4">
         <v>27</v>
       </c>
-      <c r="E69" s="4">
-        <v>1.048</v>
+      <c r="E69" s="9">
+        <v>1048</v>
       </c>
       <c r="F69" s="4">
         <v>595</v>
@@ -3671,11 +3686,11 @@
       <c r="G69" s="4">
         <v>802</v>
       </c>
-      <c r="H69" s="4">
-        <v>2.7519999999999998</v>
-      </c>
-      <c r="I69" s="4">
-        <v>2.9009999999999998</v>
+      <c r="H69" s="9">
+        <v>2752</v>
+      </c>
+      <c r="I69" s="9">
+        <v>2901</v>
       </c>
       <c r="J69" s="4">
         <v>440</v>
@@ -3687,7 +3702,7 @@
         <v>93</v>
       </c>
       <c r="M69" s="5">
-        <v>8.8650000000000002</v>
+        <v>8865</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3712,11 +3727,11 @@
       <c r="G70" s="4">
         <v>650</v>
       </c>
-      <c r="H70" s="4">
-        <v>1.7110000000000001</v>
-      </c>
-      <c r="I70" s="4">
-        <v>2.7909999999999999</v>
+      <c r="H70" s="9">
+        <v>1711</v>
+      </c>
+      <c r="I70" s="9">
+        <v>2791</v>
       </c>
       <c r="J70" s="4">
         <v>385</v>
@@ -3728,7 +3743,7 @@
         <v>93</v>
       </c>
       <c r="M70" s="5">
-        <v>7.0990000000000002</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3742,8 +3757,8 @@
       <c r="D71" s="4">
         <v>73</v>
       </c>
-      <c r="E71" s="4">
-        <v>1.446</v>
+      <c r="E71" s="9">
+        <v>1446</v>
       </c>
       <c r="F71" s="4">
         <v>645</v>
@@ -3751,11 +3766,11 @@
       <c r="G71" s="4">
         <v>843</v>
       </c>
-      <c r="H71" s="4">
-        <v>2.2679999999999998</v>
-      </c>
-      <c r="I71" s="4">
-        <v>1.7450000000000001</v>
+      <c r="H71" s="9">
+        <v>2268</v>
+      </c>
+      <c r="I71" s="9">
+        <v>1745</v>
       </c>
       <c r="J71" s="4">
         <v>214</v>
@@ -3767,7 +3782,7 @@
         <v>135</v>
       </c>
       <c r="M71" s="5">
-        <v>7.5060000000000002</v>
+        <v>7506</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3792,11 +3807,11 @@
       <c r="G72" s="4">
         <v>664</v>
       </c>
-      <c r="H72" s="4">
-        <v>1.6870000000000001</v>
-      </c>
-      <c r="I72" s="4">
-        <v>1.8280000000000001</v>
+      <c r="H72" s="9">
+        <v>1687</v>
+      </c>
+      <c r="I72" s="9">
+        <v>1828</v>
       </c>
       <c r="J72" s="4">
         <v>227</v>
@@ -3808,7 +3823,7 @@
         <v>179</v>
       </c>
       <c r="M72" s="5">
-        <v>6.2279999999999998</v>
+        <v>6228</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3822,8 +3837,8 @@
       <c r="D73" s="4">
         <v>159</v>
       </c>
-      <c r="E73" s="4">
-        <v>2.0960000000000001</v>
+      <c r="E73" s="9">
+        <v>2096</v>
       </c>
       <c r="F73" s="4">
         <v>499</v>
@@ -3831,11 +3846,11 @@
       <c r="G73" s="4">
         <v>713</v>
       </c>
-      <c r="H73" s="4">
-        <v>1.798</v>
-      </c>
-      <c r="I73" s="4">
-        <v>1.238</v>
+      <c r="H73" s="9">
+        <v>1798</v>
+      </c>
+      <c r="I73" s="9">
+        <v>1238</v>
       </c>
       <c r="J73" s="4">
         <v>103</v>
@@ -3847,7 +3862,7 @@
         <v>144</v>
       </c>
       <c r="M73" s="5">
-        <v>6.8360000000000003</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3863,8 +3878,8 @@
       <c r="D74" s="4">
         <v>57</v>
       </c>
-      <c r="E74" s="4">
-        <v>1.119</v>
+      <c r="E74" s="9">
+        <v>1119</v>
       </c>
       <c r="F74" s="4">
         <v>310</v>
@@ -3872,11 +3887,11 @@
       <c r="G74" s="4">
         <v>511</v>
       </c>
-      <c r="H74" s="4">
-        <v>1.597</v>
-      </c>
-      <c r="I74" s="4">
-        <v>1.4159999999999999</v>
+      <c r="H74" s="9">
+        <v>1597</v>
+      </c>
+      <c r="I74" s="9">
+        <v>1416</v>
       </c>
       <c r="J74" s="4">
         <v>112</v>
@@ -3888,7 +3903,7 @@
         <v>116</v>
       </c>
       <c r="M74" s="5">
-        <v>5.359</v>
+        <v>5359</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3902,8 +3917,8 @@
       <c r="D75" s="4">
         <v>321</v>
       </c>
-      <c r="E75" s="4">
-        <v>2.1760000000000002</v>
+      <c r="E75" s="9">
+        <v>2176</v>
       </c>
       <c r="F75" s="4">
         <v>271</v>
@@ -3911,8 +3926,8 @@
       <c r="G75" s="4">
         <v>539</v>
       </c>
-      <c r="H75" s="4">
-        <v>1.4410000000000001</v>
+      <c r="H75" s="9">
+        <v>1441</v>
       </c>
       <c r="I75" s="4">
         <v>803</v>
@@ -3927,7 +3942,7 @@
         <v>126</v>
       </c>
       <c r="M75" s="5">
-        <v>5.827</v>
+        <v>5827</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3943,8 +3958,8 @@
       <c r="D76" s="4">
         <v>93</v>
       </c>
-      <c r="E76" s="4">
-        <v>1.212</v>
+      <c r="E76" s="9">
+        <v>1212</v>
       </c>
       <c r="F76" s="4">
         <v>121</v>
@@ -3952,11 +3967,11 @@
       <c r="G76" s="4">
         <v>412</v>
       </c>
-      <c r="H76" s="4">
-        <v>1.052</v>
-      </c>
-      <c r="I76" s="4">
-        <v>1.2430000000000001</v>
+      <c r="H76" s="9">
+        <v>1052</v>
+      </c>
+      <c r="I76" s="9">
+        <v>1243</v>
       </c>
       <c r="J76" s="4">
         <v>76</v>
@@ -3968,7 +3983,7 @@
         <v>125</v>
       </c>
       <c r="M76" s="5">
-        <v>4.4240000000000004</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3982,8 +3997,8 @@
       <c r="D77" s="4">
         <v>532</v>
       </c>
-      <c r="E77" s="4">
-        <v>1.8520000000000001</v>
+      <c r="E77" s="9">
+        <v>1852</v>
       </c>
       <c r="F77" s="4">
         <v>94</v>
@@ -4007,7 +4022,7 @@
         <v>95</v>
       </c>
       <c r="M77" s="5">
-        <v>4.4989999999999997</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4023,8 +4038,8 @@
       <c r="D78" s="4">
         <v>117</v>
       </c>
-      <c r="E78" s="4">
-        <v>1.0609999999999999</v>
+      <c r="E78" s="9">
+        <v>1061</v>
       </c>
       <c r="F78" s="4">
         <v>32</v>
@@ -4048,7 +4063,7 @@
         <v>60</v>
       </c>
       <c r="M78" s="5">
-        <v>2.9380000000000002</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4062,8 +4077,8 @@
       <c r="D79" s="4">
         <v>589</v>
       </c>
-      <c r="E79" s="4">
-        <v>1.3</v>
+      <c r="E79" s="9">
+        <v>1300</v>
       </c>
       <c r="F79" s="4">
         <v>24</v>
@@ -4087,7 +4102,7 @@
         <v>82</v>
       </c>
       <c r="M79" s="5">
-        <v>3.044</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4103,8 +4118,8 @@
       <c r="D80" s="4">
         <v>277</v>
       </c>
-      <c r="E80" s="4">
-        <v>1.1160000000000001</v>
+      <c r="E80" s="9">
+        <v>1116</v>
       </c>
       <c r="F80" s="4">
         <v>12</v>
@@ -4128,7 +4143,7 @@
         <v>84</v>
       </c>
       <c r="M80" s="5">
-        <v>2.609</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4139,11 +4154,11 @@
       <c r="C81" s="4">
         <v>504</v>
       </c>
-      <c r="D81" s="4">
-        <v>1.1539999999999999</v>
-      </c>
-      <c r="E81" s="4">
-        <v>1.4139999999999999</v>
+      <c r="D81" s="9">
+        <v>1154</v>
+      </c>
+      <c r="E81" s="9">
+        <v>1414</v>
       </c>
       <c r="F81" s="4">
         <v>10</v>
@@ -4167,46 +4182,46 @@
         <v>85</v>
       </c>
       <c r="M81" s="5">
-        <v>3.72</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="5">
-        <v>1.0269999999999999</v>
+        <v>1027</v>
       </c>
       <c r="D82" s="5">
-        <v>3.6680000000000001</v>
+        <v>3668</v>
       </c>
       <c r="E82" s="5">
-        <v>19.442</v>
+        <v>19442</v>
       </c>
       <c r="F82" s="5">
-        <v>7.0979999999999999</v>
+        <v>7098</v>
       </c>
       <c r="G82" s="5">
-        <v>13.481</v>
+        <v>13481</v>
       </c>
       <c r="H82" s="5">
-        <v>52.816000000000003</v>
+        <v>52816</v>
       </c>
       <c r="I82" s="5">
-        <v>59.482999999999997</v>
+        <v>59483</v>
       </c>
       <c r="J82" s="5">
-        <v>9.3160000000000007</v>
+        <v>9316</v>
       </c>
       <c r="K82" s="5">
-        <v>2.371</v>
+        <v>2371</v>
       </c>
       <c r="L82" s="5">
-        <v>2.1960000000000002</v>
+        <v>2196</v>
       </c>
       <c r="M82" s="5">
-        <v>170.898</v>
+        <v>170898</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4286,7 +4301,7 @@
         <v>10</v>
       </c>
       <c r="M84" s="5">
-        <v>1.1259999999999999</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4325,7 +4340,7 @@
         <v>15</v>
       </c>
       <c r="M85" s="5">
-        <v>1.0269999999999999</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4365,7 +4380,7 @@
       <c r="L86" s="4">
         <v>1</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="6">
         <v>702</v>
       </c>
     </row>
@@ -4404,7 +4419,7 @@
       <c r="L87" s="4">
         <v>1</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="6">
         <v>618</v>
       </c>
     </row>
@@ -4445,7 +4460,7 @@
       <c r="L88" s="4">
         <v>2</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="6">
         <v>687</v>
       </c>
     </row>
@@ -4484,7 +4499,7 @@
       <c r="L89" s="4">
         <v>1</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="6">
         <v>530</v>
       </c>
     </row>
@@ -4525,7 +4540,7 @@
       <c r="L90" s="4">
         <v>2</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="6">
         <v>590</v>
       </c>
     </row>
@@ -4564,7 +4579,7 @@
       <c r="L91" s="4">
         <v>3</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="6">
         <v>464</v>
       </c>
     </row>
@@ -4605,7 +4620,7 @@
       <c r="L92" s="4">
         <v>1</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="6">
         <v>616</v>
       </c>
     </row>
@@ -4644,7 +4659,7 @@
       <c r="L93" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="6">
         <v>541</v>
       </c>
     </row>
@@ -4685,7 +4700,7 @@
       <c r="L94" s="4">
         <v>2</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="6">
         <v>697</v>
       </c>
     </row>
@@ -4724,7 +4739,7 @@
       <c r="L95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="6">
         <v>616</v>
       </c>
     </row>
@@ -4765,7 +4780,7 @@
       <c r="L96" s="4">
         <v>3</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="6">
         <v>666</v>
       </c>
     </row>
@@ -4804,7 +4819,7 @@
       <c r="L97" s="4">
         <v>6</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="6">
         <v>608</v>
       </c>
     </row>
@@ -4845,7 +4860,7 @@
       <c r="L98" s="4">
         <v>8</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="6">
         <v>728</v>
       </c>
     </row>
@@ -4884,7 +4899,7 @@
       <c r="L99" s="4">
         <v>7</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="6">
         <v>700</v>
       </c>
     </row>
@@ -4925,7 +4940,7 @@
       <c r="L100" s="4">
         <v>4</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="6">
         <v>571</v>
       </c>
     </row>
@@ -4964,7 +4979,7 @@
       <c r="L101" s="4">
         <v>4</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="6">
         <v>551</v>
       </c>
     </row>
@@ -5005,7 +5020,7 @@
       <c r="L102" s="4">
         <v>5</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="6">
         <v>515</v>
       </c>
     </row>
@@ -5044,7 +5059,7 @@
       <c r="L103" s="4">
         <v>8</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="6">
         <v>515</v>
       </c>
     </row>
@@ -5085,7 +5100,7 @@
       <c r="L104" s="4">
         <v>2</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="6">
         <v>307</v>
       </c>
     </row>
@@ -5124,7 +5139,7 @@
       <c r="L105" s="4">
         <v>4</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="6">
         <v>358</v>
       </c>
     </row>
@@ -5165,7 +5180,7 @@
       <c r="L106" s="4">
         <v>1</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="6">
         <v>414</v>
       </c>
     </row>
@@ -5204,7 +5219,7 @@
       <c r="L107" s="4">
         <v>4</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="6">
         <v>578</v>
       </c>
     </row>
@@ -5212,39 +5227,39 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="5">
-        <v>1.056</v>
+        <v>1056</v>
       </c>
       <c r="D108" s="5">
-        <v>1.484</v>
+        <v>1484</v>
       </c>
       <c r="E108" s="5">
-        <v>4.6870000000000003</v>
+        <v>4687</v>
       </c>
       <c r="F108" s="5">
-        <v>1.589</v>
+        <v>1589</v>
       </c>
       <c r="G108" s="5">
-        <v>2.2730000000000001</v>
+        <v>2273</v>
       </c>
       <c r="H108" s="5">
-        <v>2.4950000000000001</v>
+        <v>2495</v>
       </c>
       <c r="I108" s="5">
-        <v>1.016</v>
-      </c>
-      <c r="J108" s="5">
+        <v>1016</v>
+      </c>
+      <c r="J108" s="6">
         <v>40</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="6">
         <v>6</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="6">
         <v>79</v>
       </c>
       <c r="M108" s="5">
-        <v>14.725</v>
+        <v>14725</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5305,11 +5320,11 @@
       <c r="F110" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G110" s="4">
-        <v>1.5369999999999999</v>
-      </c>
-      <c r="H110" s="4">
-        <v>4.17</v>
+      <c r="G110" s="9">
+        <v>1537</v>
+      </c>
+      <c r="H110" s="9">
+        <v>4170</v>
       </c>
       <c r="I110" s="4">
         <v>899</v>
@@ -5324,7 +5339,7 @@
         <v>64</v>
       </c>
       <c r="M110" s="5">
-        <v>6.7190000000000003</v>
+        <v>6719</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5344,14 +5359,14 @@
       <c r="F111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G111" s="4">
-        <v>1.095</v>
-      </c>
-      <c r="H111" s="4">
-        <v>4.0919999999999996</v>
-      </c>
-      <c r="I111" s="4">
-        <v>1.482</v>
+      <c r="G111" s="9">
+        <v>1095</v>
+      </c>
+      <c r="H111" s="9">
+        <v>4092</v>
+      </c>
+      <c r="I111" s="9">
+        <v>1482</v>
       </c>
       <c r="J111" s="4">
         <v>8</v>
@@ -5363,7 +5378,7 @@
         <v>19</v>
       </c>
       <c r="M111" s="5">
-        <v>6.7389999999999999</v>
+        <v>6739</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5385,14 +5400,14 @@
       <c r="F112" s="4">
         <v>29</v>
       </c>
-      <c r="G112" s="4">
-        <v>1.238</v>
-      </c>
-      <c r="H112" s="4">
-        <v>1.3480000000000001</v>
-      </c>
-      <c r="I112" s="4">
-        <v>1.6619999999999999</v>
+      <c r="G112" s="9">
+        <v>1238</v>
+      </c>
+      <c r="H112" s="9">
+        <v>1348</v>
+      </c>
+      <c r="I112" s="9">
+        <v>1662</v>
       </c>
       <c r="J112" s="4">
         <v>69</v>
@@ -5404,7 +5419,7 @@
         <v>18</v>
       </c>
       <c r="M112" s="5">
-        <v>4.383</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5427,11 +5442,11 @@
       <c r="G113" s="4">
         <v>909</v>
       </c>
-      <c r="H113" s="4">
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="I113" s="4">
-        <v>2.121</v>
+      <c r="H113" s="9">
+        <v>1124</v>
+      </c>
+      <c r="I113" s="9">
+        <v>2121</v>
       </c>
       <c r="J113" s="4">
         <v>119</v>
@@ -5443,7 +5458,7 @@
         <v>13</v>
       </c>
       <c r="M113" s="5">
-        <v>4.4000000000000004</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5468,11 +5483,11 @@
       <c r="G114" s="4">
         <v>540</v>
       </c>
-      <c r="H114" s="4">
-        <v>1.363</v>
-      </c>
-      <c r="I114" s="4">
-        <v>1.331</v>
+      <c r="H114" s="9">
+        <v>1363</v>
+      </c>
+      <c r="I114" s="9">
+        <v>1331</v>
       </c>
       <c r="J114" s="4">
         <v>107</v>
@@ -5484,7 +5499,7 @@
         <v>34</v>
       </c>
       <c r="M114" s="5">
-        <v>4.1449999999999996</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5507,11 +5522,11 @@
       <c r="G115" s="4">
         <v>419</v>
       </c>
-      <c r="H115" s="4">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="I115" s="4">
-        <v>1.504</v>
+      <c r="H115" s="9">
+        <v>1152</v>
+      </c>
+      <c r="I115" s="9">
+        <v>1504</v>
       </c>
       <c r="J115" s="4">
         <v>118</v>
@@ -5523,7 +5538,7 @@
         <v>13</v>
       </c>
       <c r="M115" s="5">
-        <v>4.0730000000000004</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5548,11 +5563,11 @@
       <c r="G116" s="4">
         <v>486</v>
       </c>
-      <c r="H116" s="4">
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="I116" s="4">
-        <v>1.0620000000000001</v>
+      <c r="H116" s="9">
+        <v>1455</v>
+      </c>
+      <c r="I116" s="9">
+        <v>1062</v>
       </c>
       <c r="J116" s="4">
         <v>138</v>
@@ -5564,7 +5579,7 @@
         <v>25</v>
       </c>
       <c r="M116" s="5">
-        <v>4.516</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5587,11 +5602,11 @@
       <c r="G117" s="4">
         <v>509</v>
       </c>
-      <c r="H117" s="4">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="I117" s="4">
-        <v>1.073</v>
+      <c r="H117" s="9">
+        <v>1205</v>
+      </c>
+      <c r="I117" s="9">
+        <v>1073</v>
       </c>
       <c r="J117" s="4">
         <v>117</v>
@@ -5603,7 +5618,7 @@
         <v>22</v>
       </c>
       <c r="M117" s="5">
-        <v>4.57</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5628,8 +5643,8 @@
       <c r="G118" s="4">
         <v>849</v>
       </c>
-      <c r="H118" s="4">
-        <v>1.331</v>
+      <c r="H118" s="9">
+        <v>1331</v>
       </c>
       <c r="I118" s="4">
         <v>877</v>
@@ -5644,7 +5659,7 @@
         <v>44</v>
       </c>
       <c r="M118" s="5">
-        <v>4.8979999999999997</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5658,8 +5673,8 @@
       <c r="D119" s="4">
         <v>62</v>
       </c>
-      <c r="E119" s="4">
-        <v>1.532</v>
+      <c r="E119" s="9">
+        <v>1532</v>
       </c>
       <c r="F119" s="4">
         <v>701</v>
@@ -5667,8 +5682,8 @@
       <c r="G119" s="4">
         <v>783</v>
       </c>
-      <c r="H119" s="4">
-        <v>1.1160000000000001</v>
+      <c r="H119" s="9">
+        <v>1116</v>
       </c>
       <c r="I119" s="4">
         <v>858</v>
@@ -5683,7 +5698,7 @@
         <v>24</v>
       </c>
       <c r="M119" s="5">
-        <v>5.2060000000000004</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5708,8 +5723,8 @@
       <c r="G120" s="4">
         <v>796</v>
       </c>
-      <c r="H120" s="4">
-        <v>1.097</v>
+      <c r="H120" s="9">
+        <v>1097</v>
       </c>
       <c r="I120" s="4">
         <v>746</v>
@@ -5724,7 +5739,7 @@
         <v>39</v>
       </c>
       <c r="M120" s="5">
-        <v>4.7110000000000003</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5738,8 +5753,8 @@
       <c r="D121" s="4">
         <v>86</v>
       </c>
-      <c r="E121" s="4">
-        <v>1.782</v>
+      <c r="E121" s="9">
+        <v>1782</v>
       </c>
       <c r="F121" s="4">
         <v>810</v>
@@ -5763,7 +5778,7 @@
         <v>34</v>
       </c>
       <c r="M121" s="5">
-        <v>4.9720000000000004</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5779,11 +5794,11 @@
       <c r="D122" s="4">
         <v>28</v>
       </c>
-      <c r="E122" s="4">
-        <v>1.244</v>
-      </c>
-      <c r="F122" s="4">
-        <v>1.024</v>
+      <c r="E122" s="9">
+        <v>1244</v>
+      </c>
+      <c r="F122" s="9">
+        <v>1024</v>
       </c>
       <c r="G122" s="4">
         <v>866</v>
@@ -5804,7 +5819,7 @@
         <v>59</v>
       </c>
       <c r="M122" s="5">
-        <v>4.7450000000000001</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5818,8 +5833,8 @@
       <c r="D123" s="4">
         <v>157</v>
       </c>
-      <c r="E123" s="4">
-        <v>2.2440000000000002</v>
+      <c r="E123" s="9">
+        <v>2244</v>
       </c>
       <c r="F123" s="4">
         <v>853</v>
@@ -5843,7 +5858,7 @@
         <v>63</v>
       </c>
       <c r="M123" s="5">
-        <v>5.133</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5859,11 +5874,11 @@
       <c r="D124" s="4">
         <v>70</v>
       </c>
-      <c r="E124" s="4">
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="F124" s="4">
-        <v>1.01</v>
+      <c r="E124" s="9">
+        <v>1945</v>
+      </c>
+      <c r="F124" s="9">
+        <v>1010</v>
       </c>
       <c r="G124" s="4">
         <v>807</v>
@@ -5884,7 +5899,7 @@
         <v>89</v>
       </c>
       <c r="M124" s="5">
-        <v>5.2910000000000004</v>
+        <v>5291</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5898,8 +5913,8 @@
       <c r="D125" s="4">
         <v>363</v>
       </c>
-      <c r="E125" s="4">
-        <v>2.907</v>
+      <c r="E125" s="9">
+        <v>2907</v>
       </c>
       <c r="F125" s="4">
         <v>624</v>
@@ -5923,7 +5938,7 @@
         <v>71</v>
       </c>
       <c r="M125" s="5">
-        <v>5.46</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5939,8 +5954,8 @@
       <c r="D126" s="4">
         <v>126</v>
       </c>
-      <c r="E126" s="4">
-        <v>2.1890000000000001</v>
+      <c r="E126" s="9">
+        <v>2189</v>
       </c>
       <c r="F126" s="4">
         <v>574</v>
@@ -5964,7 +5979,7 @@
         <v>65</v>
       </c>
       <c r="M126" s="5">
-        <v>4.6319999999999997</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5978,8 +5993,8 @@
       <c r="D127" s="4">
         <v>627</v>
       </c>
-      <c r="E127" s="4">
-        <v>2.7069999999999999</v>
+      <c r="E127" s="9">
+        <v>2707</v>
       </c>
       <c r="F127" s="4">
         <v>292</v>
@@ -6003,7 +6018,7 @@
         <v>73</v>
       </c>
       <c r="M127" s="5">
-        <v>4.7939999999999996</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6019,8 +6034,8 @@
       <c r="D128" s="4">
         <v>246</v>
       </c>
-      <c r="E128" s="4">
-        <v>2.14</v>
+      <c r="E128" s="9">
+        <v>2140</v>
       </c>
       <c r="F128" s="4">
         <v>212</v>
@@ -6044,7 +6059,7 @@
         <v>64</v>
       </c>
       <c r="M128" s="5">
-        <v>3.7770000000000001</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6055,11 +6070,11 @@
       <c r="C129" s="4">
         <v>379</v>
       </c>
-      <c r="D129" s="4">
-        <v>1.0609999999999999</v>
-      </c>
-      <c r="E129" s="4">
-        <v>2.004</v>
+      <c r="D129" s="9">
+        <v>1061</v>
+      </c>
+      <c r="E129" s="9">
+        <v>2004</v>
       </c>
       <c r="F129" s="4">
         <v>98</v>
@@ -6083,7 +6098,7 @@
         <v>60</v>
       </c>
       <c r="M129" s="5">
-        <v>4.0880000000000001</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6099,8 +6114,8 @@
       <c r="D130" s="4">
         <v>305</v>
       </c>
-      <c r="E130" s="4">
-        <v>1.8169999999999999</v>
+      <c r="E130" s="9">
+        <v>1817</v>
       </c>
       <c r="F130" s="4">
         <v>71</v>
@@ -6124,7 +6139,7 @@
         <v>24</v>
       </c>
       <c r="M130" s="5">
-        <v>2.77</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6135,11 +6150,11 @@
       <c r="C131" s="4">
         <v>429</v>
       </c>
-      <c r="D131" s="4">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="E131" s="4">
-        <v>1.304</v>
+      <c r="D131" s="9">
+        <v>1126</v>
+      </c>
+      <c r="E131" s="9">
+        <v>1304</v>
       </c>
       <c r="F131" s="4">
         <v>32</v>
@@ -6163,7 +6178,7 @@
         <v>53</v>
       </c>
       <c r="M131" s="5">
-        <v>3.1840000000000002</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6179,8 +6194,8 @@
       <c r="D132" s="4">
         <v>757</v>
       </c>
-      <c r="E132" s="4">
-        <v>1.8049999999999999</v>
+      <c r="E132" s="9">
+        <v>1805</v>
       </c>
       <c r="F132" s="4">
         <v>32</v>
@@ -6204,7 +6219,7 @@
         <v>52</v>
       </c>
       <c r="M132" s="5">
-        <v>3.2839999999999998</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6212,14 +6227,14 @@
       <c r="B133" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="4">
-        <v>1.5109999999999999</v>
-      </c>
-      <c r="D133" s="4">
-        <v>1.74</v>
-      </c>
-      <c r="E133" s="4">
-        <v>1.2889999999999999</v>
+      <c r="C133" s="9">
+        <v>1511</v>
+      </c>
+      <c r="D133" s="9">
+        <v>1740</v>
+      </c>
+      <c r="E133" s="9">
+        <v>1289</v>
       </c>
       <c r="F133" s="4">
         <v>10</v>
@@ -6243,46 +6258,46 @@
         <v>50</v>
       </c>
       <c r="M133" s="5">
-        <v>4.7809999999999997</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="7"/>
       <c r="C134" s="5">
-        <v>3.2829999999999999</v>
+        <v>3283</v>
       </c>
       <c r="D134" s="5">
-        <v>7.1029999999999998</v>
+        <v>7103</v>
       </c>
       <c r="E134" s="5">
-        <v>29.902999999999999</v>
+        <v>29903</v>
       </c>
       <c r="F134" s="5">
-        <v>11.369</v>
+        <v>11369</v>
       </c>
       <c r="G134" s="5">
-        <v>14.884</v>
+        <v>14884</v>
       </c>
       <c r="H134" s="5">
-        <v>25.256</v>
+        <v>25256</v>
       </c>
       <c r="I134" s="5">
-        <v>16.997</v>
+        <v>16997</v>
       </c>
       <c r="J134" s="5">
-        <v>1.32</v>
-      </c>
-      <c r="K134" s="5">
+        <v>1320</v>
+      </c>
+      <c r="K134" s="6">
         <v>84</v>
       </c>
       <c r="L134" s="5">
-        <v>1.0720000000000001</v>
+        <v>1072</v>
       </c>
       <c r="M134" s="5">
-        <v>111.271</v>
+        <v>111271</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6343,11 +6358,11 @@
       <c r="F136" s="4">
         <v>2</v>
       </c>
-      <c r="G136" s="4">
-        <v>1.4930000000000001</v>
-      </c>
-      <c r="H136" s="4">
-        <v>3.1520000000000001</v>
+      <c r="G136" s="9">
+        <v>1493</v>
+      </c>
+      <c r="H136" s="9">
+        <v>3152</v>
       </c>
       <c r="I136" s="4">
         <v>624</v>
@@ -6362,7 +6377,7 @@
         <v>49</v>
       </c>
       <c r="M136" s="5">
-        <v>5.3390000000000004</v>
+        <v>5339</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6382,14 +6397,14 @@
       <c r="F137" s="4">
         <v>2</v>
       </c>
-      <c r="G137" s="4">
-        <v>1.147</v>
-      </c>
-      <c r="H137" s="4">
-        <v>3.0230000000000001</v>
-      </c>
-      <c r="I137" s="4">
-        <v>1.0249999999999999</v>
+      <c r="G137" s="9">
+        <v>1147</v>
+      </c>
+      <c r="H137" s="9">
+        <v>3023</v>
+      </c>
+      <c r="I137" s="9">
+        <v>1025</v>
       </c>
       <c r="J137" s="4">
         <v>2</v>
@@ -6401,7 +6416,7 @@
         <v>19</v>
       </c>
       <c r="M137" s="5">
-        <v>5.2530000000000001</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6423,14 +6438,14 @@
       <c r="F138" s="4">
         <v>50</v>
       </c>
-      <c r="G138" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="H138" s="4">
-        <v>1.1120000000000001</v>
-      </c>
-      <c r="I138" s="4">
-        <v>1.1759999999999999</v>
+      <c r="G138" s="9">
+        <v>1200</v>
+      </c>
+      <c r="H138" s="9">
+        <v>1112</v>
+      </c>
+      <c r="I138" s="9">
+        <v>1176</v>
       </c>
       <c r="J138" s="4">
         <v>49</v>
@@ -6442,7 +6457,7 @@
         <v>11</v>
       </c>
       <c r="M138" s="5">
-        <v>3.6320000000000001</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6468,8 +6483,8 @@
       <c r="H139" s="4">
         <v>997</v>
       </c>
-      <c r="I139" s="4">
-        <v>1.4750000000000001</v>
+      <c r="I139" s="9">
+        <v>1475</v>
       </c>
       <c r="J139" s="4">
         <v>66</v>
@@ -6481,7 +6496,7 @@
         <v>16</v>
       </c>
       <c r="M139" s="5">
-        <v>3.6819999999999999</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6506,8 +6521,8 @@
       <c r="G140" s="4">
         <v>537</v>
       </c>
-      <c r="H140" s="4">
-        <v>1.137</v>
+      <c r="H140" s="9">
+        <v>1137</v>
       </c>
       <c r="I140" s="4">
         <v>888</v>
@@ -6522,7 +6537,7 @@
         <v>20</v>
       </c>
       <c r="M140" s="5">
-        <v>3.4809999999999999</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6548,8 +6563,8 @@
       <c r="H141" s="4">
         <v>958</v>
       </c>
-      <c r="I141" s="4">
-        <v>1.097</v>
+      <c r="I141" s="9">
+        <v>1097</v>
       </c>
       <c r="J141" s="4">
         <v>67</v>
@@ -6561,7 +6576,7 @@
         <v>23</v>
       </c>
       <c r="M141" s="5">
-        <v>3.5449999999999999</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6586,8 +6601,8 @@
       <c r="G142" s="4">
         <v>408</v>
       </c>
-      <c r="H142" s="4">
-        <v>1.2649999999999999</v>
+      <c r="H142" s="9">
+        <v>1265</v>
       </c>
       <c r="I142" s="4">
         <v>728</v>
@@ -6602,7 +6617,7 @@
         <v>22</v>
       </c>
       <c r="M142" s="5">
-        <v>3.7559999999999998</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6625,8 +6640,8 @@
       <c r="G143" s="4">
         <v>430</v>
       </c>
-      <c r="H143" s="4">
-        <v>1.036</v>
+      <c r="H143" s="9">
+        <v>1036</v>
       </c>
       <c r="I143" s="4">
         <v>744</v>
@@ -6641,7 +6656,7 @@
         <v>20</v>
       </c>
       <c r="M143" s="5">
-        <v>3.758</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6666,8 +6681,8 @@
       <c r="G144" s="4">
         <v>653</v>
       </c>
-      <c r="H144" s="4">
-        <v>1.2350000000000001</v>
+      <c r="H144" s="9">
+        <v>1235</v>
       </c>
       <c r="I144" s="4">
         <v>599</v>
@@ -6682,7 +6697,7 @@
         <v>22</v>
       </c>
       <c r="M144" s="5">
-        <v>4.1230000000000002</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6696,8 +6711,8 @@
       <c r="D145" s="4">
         <v>50</v>
       </c>
-      <c r="E145" s="4">
-        <v>1.1950000000000001</v>
+      <c r="E145" s="9">
+        <v>1195</v>
       </c>
       <c r="F145" s="4">
         <v>547</v>
@@ -6721,7 +6736,7 @@
         <v>20</v>
       </c>
       <c r="M145" s="5">
-        <v>3.9710000000000001</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6762,7 +6777,7 @@
         <v>20</v>
       </c>
       <c r="M146" s="5">
-        <v>3.7</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6776,8 +6791,8 @@
       <c r="D147" s="4">
         <v>57</v>
       </c>
-      <c r="E147" s="4">
-        <v>1.238</v>
+      <c r="E147" s="9">
+        <v>1238</v>
       </c>
       <c r="F147" s="4">
         <v>560</v>
@@ -6801,7 +6816,7 @@
         <v>17</v>
       </c>
       <c r="M147" s="5">
-        <v>3.5710000000000002</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6842,7 +6857,7 @@
         <v>26</v>
       </c>
       <c r="M148" s="5">
-        <v>3.0640000000000001</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6856,8 +6871,8 @@
       <c r="D149" s="4">
         <v>82</v>
       </c>
-      <c r="E149" s="4">
-        <v>1.333</v>
+      <c r="E149" s="9">
+        <v>1333</v>
       </c>
       <c r="F149" s="4">
         <v>495</v>
@@ -6881,7 +6896,7 @@
         <v>30</v>
       </c>
       <c r="M149" s="5">
-        <v>3.0750000000000002</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6922,7 +6937,7 @@
         <v>30</v>
       </c>
       <c r="M150" s="5">
-        <v>2.8260000000000001</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6936,8 +6951,8 @@
       <c r="D151" s="4">
         <v>145</v>
       </c>
-      <c r="E151" s="4">
-        <v>1.528</v>
+      <c r="E151" s="9">
+        <v>1528</v>
       </c>
       <c r="F151" s="4">
         <v>319</v>
@@ -6961,7 +6976,7 @@
         <v>26</v>
       </c>
       <c r="M151" s="5">
-        <v>2.8639999999999999</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6977,8 +6992,8 @@
       <c r="D152" s="4">
         <v>35</v>
       </c>
-      <c r="E152" s="4">
-        <v>1.125</v>
+      <c r="E152" s="9">
+        <v>1125</v>
       </c>
       <c r="F152" s="4">
         <v>283</v>
@@ -7002,7 +7017,7 @@
         <v>29</v>
       </c>
       <c r="M152" s="5">
-        <v>2.2719999999999998</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7016,8 +7031,8 @@
       <c r="D153" s="4">
         <v>213</v>
       </c>
-      <c r="E153" s="4">
-        <v>1.2889999999999999</v>
+      <c r="E153" s="9">
+        <v>1289</v>
       </c>
       <c r="F153" s="4">
         <v>168</v>
@@ -7041,7 +7056,7 @@
         <v>35</v>
       </c>
       <c r="M153" s="5">
-        <v>2.2480000000000002</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7082,7 +7097,7 @@
         <v>37</v>
       </c>
       <c r="M154" s="5">
-        <v>1.667</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7121,7 +7136,7 @@
         <v>37</v>
       </c>
       <c r="M155" s="5">
-        <v>1.8879999999999999</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7162,7 +7177,7 @@
         <v>21</v>
       </c>
       <c r="M156" s="5">
-        <v>1.0860000000000001</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7201,7 +7216,7 @@
         <v>24</v>
       </c>
       <c r="M157" s="5">
-        <v>1.2829999999999999</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7242,7 +7257,7 @@
         <v>26</v>
       </c>
       <c r="M158" s="5">
-        <v>1.1990000000000001</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7281,46 +7296,46 @@
         <v>39</v>
       </c>
       <c r="M159" s="5">
-        <v>1.853</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="5">
-        <v>1.716</v>
+        <v>1716</v>
       </c>
       <c r="D160" s="5">
-        <v>2.5950000000000002</v>
+        <v>2595</v>
       </c>
       <c r="E160" s="5">
-        <v>16.454000000000001</v>
+        <v>16454</v>
       </c>
       <c r="F160" s="5">
-        <v>8.9580000000000002</v>
+        <v>8958</v>
       </c>
       <c r="G160" s="5">
-        <v>11.69</v>
+        <v>11690</v>
       </c>
       <c r="H160" s="5">
-        <v>19.254000000000001</v>
+        <v>19254</v>
       </c>
       <c r="I160" s="5">
-        <v>10.965999999999999</v>
-      </c>
-      <c r="J160" s="5">
+        <v>10966</v>
+      </c>
+      <c r="J160" s="6">
         <v>787</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="6">
         <v>97</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="6">
         <v>619</v>
       </c>
       <c r="M160" s="5">
-        <v>73.135999999999996</v>
+        <v>73136</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7381,11 +7396,11 @@
       <c r="F162" s="4">
         <v>1</v>
       </c>
-      <c r="G162" s="4">
-        <v>1.863</v>
-      </c>
-      <c r="H162" s="4">
-        <v>4.3949999999999996</v>
+      <c r="G162" s="9">
+        <v>1863</v>
+      </c>
+      <c r="H162" s="9">
+        <v>4395</v>
       </c>
       <c r="I162" s="4">
         <v>906</v>
@@ -7400,7 +7415,7 @@
         <v>58</v>
       </c>
       <c r="M162" s="5">
-        <v>7.2549999999999999</v>
+        <v>7255</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7420,14 +7435,14 @@
       <c r="F163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G163" s="4">
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="H163" s="4">
-        <v>4.367</v>
-      </c>
-      <c r="I163" s="4">
-        <v>1.5580000000000001</v>
+      <c r="G163" s="9">
+        <v>1275</v>
+      </c>
+      <c r="H163" s="9">
+        <v>4367</v>
+      </c>
+      <c r="I163" s="9">
+        <v>1558</v>
       </c>
       <c r="J163" s="4">
         <v>6</v>
@@ -7439,7 +7454,7 @@
         <v>26</v>
       </c>
       <c r="M163" s="5">
-        <v>7.2649999999999997</v>
+        <v>7265</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7461,14 +7476,14 @@
       <c r="F164" s="4">
         <v>24</v>
       </c>
-      <c r="G164" s="4">
-        <v>1.4379999999999999</v>
-      </c>
-      <c r="H164" s="4">
-        <v>1.4570000000000001</v>
-      </c>
-      <c r="I164" s="4">
-        <v>1.55</v>
+      <c r="G164" s="9">
+        <v>1438</v>
+      </c>
+      <c r="H164" s="9">
+        <v>1457</v>
+      </c>
+      <c r="I164" s="9">
+        <v>1550</v>
       </c>
       <c r="J164" s="4">
         <v>75</v>
@@ -7480,7 +7495,7 @@
         <v>13</v>
       </c>
       <c r="M164" s="5">
-        <v>4.58</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7500,14 +7515,14 @@
       <c r="F165" s="4">
         <v>41</v>
       </c>
-      <c r="G165" s="4">
-        <v>1.304</v>
-      </c>
-      <c r="H165" s="4">
-        <v>1.103</v>
-      </c>
-      <c r="I165" s="4">
-        <v>2.0379999999999998</v>
+      <c r="G165" s="9">
+        <v>1304</v>
+      </c>
+      <c r="H165" s="9">
+        <v>1103</v>
+      </c>
+      <c r="I165" s="9">
+        <v>2038</v>
       </c>
       <c r="J165" s="4">
         <v>84</v>
@@ -7519,7 +7534,7 @@
         <v>14</v>
       </c>
       <c r="M165" s="5">
-        <v>4.6470000000000002</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7538,17 +7553,17 @@
       <c r="E166" s="4">
         <v>11</v>
       </c>
-      <c r="F166" s="4">
-        <v>1</v>
+      <c r="F166" s="9">
+        <v>1000</v>
       </c>
       <c r="G166" s="4">
         <v>596</v>
       </c>
-      <c r="H166" s="4">
-        <v>1.355</v>
-      </c>
-      <c r="I166" s="4">
-        <v>1.1319999999999999</v>
+      <c r="H166" s="9">
+        <v>1355</v>
+      </c>
+      <c r="I166" s="9">
+        <v>1132</v>
       </c>
       <c r="J166" s="4">
         <v>110</v>
@@ -7560,7 +7575,7 @@
         <v>19</v>
       </c>
       <c r="M166" s="5">
-        <v>4.2519999999999998</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7577,17 +7592,17 @@
       <c r="E167" s="4">
         <v>67</v>
       </c>
-      <c r="F167" s="4">
-        <v>1.177</v>
+      <c r="F167" s="9">
+        <v>1177</v>
       </c>
       <c r="G167" s="4">
         <v>533</v>
       </c>
-      <c r="H167" s="4">
-        <v>1.099</v>
-      </c>
-      <c r="I167" s="4">
-        <v>1.1539999999999999</v>
+      <c r="H167" s="9">
+        <v>1099</v>
+      </c>
+      <c r="I167" s="9">
+        <v>1154</v>
       </c>
       <c r="J167" s="4">
         <v>110</v>
@@ -7599,7 +7614,7 @@
         <v>16</v>
       </c>
       <c r="M167" s="5">
-        <v>4.2430000000000003</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7618,14 +7633,14 @@
       <c r="E168" s="4">
         <v>600</v>
       </c>
-      <c r="F168" s="4">
-        <v>1.202</v>
+      <c r="F168" s="9">
+        <v>1202</v>
       </c>
       <c r="G168" s="4">
         <v>590</v>
       </c>
-      <c r="H168" s="4">
-        <v>1.343</v>
+      <c r="H168" s="9">
+        <v>1343</v>
       </c>
       <c r="I168" s="4">
         <v>762</v>
@@ -7640,7 +7655,7 @@
         <v>21</v>
       </c>
       <c r="M168" s="5">
-        <v>4.66</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7654,8 +7669,8 @@
       <c r="D169" s="4">
         <v>49</v>
       </c>
-      <c r="E169" s="4">
-        <v>1.2549999999999999</v>
+      <c r="E169" s="9">
+        <v>1255</v>
       </c>
       <c r="F169" s="4">
         <v>914</v>
@@ -7663,8 +7678,8 @@
       <c r="G169" s="4">
         <v>543</v>
       </c>
-      <c r="H169" s="4">
-        <v>1.093</v>
+      <c r="H169" s="9">
+        <v>1093</v>
       </c>
       <c r="I169" s="4">
         <v>738</v>
@@ -7679,7 +7694,7 @@
         <v>27</v>
       </c>
       <c r="M169" s="5">
-        <v>4.6989999999999998</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7695,8 +7710,8 @@
       <c r="D170" s="4">
         <v>22</v>
       </c>
-      <c r="E170" s="4">
-        <v>1.1479999999999999</v>
+      <c r="E170" s="9">
+        <v>1148</v>
       </c>
       <c r="F170" s="4">
         <v>893</v>
@@ -7704,8 +7719,8 @@
       <c r="G170" s="4">
         <v>899</v>
       </c>
-      <c r="H170" s="4">
-        <v>1.331</v>
+      <c r="H170" s="9">
+        <v>1331</v>
       </c>
       <c r="I170" s="4">
         <v>640</v>
@@ -7720,7 +7735,7 @@
         <v>36</v>
       </c>
       <c r="M170" s="5">
-        <v>5.07</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7734,8 +7749,8 @@
       <c r="D171" s="4">
         <v>64</v>
       </c>
-      <c r="E171" s="4">
-        <v>2.0920000000000001</v>
+      <c r="E171" s="9">
+        <v>2092</v>
       </c>
       <c r="F171" s="4">
         <v>646</v>
@@ -7759,7 +7774,7 @@
         <v>28</v>
       </c>
       <c r="M171" s="5">
-        <v>5.0410000000000004</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7775,8 +7790,8 @@
       <c r="D172" s="4">
         <v>13</v>
       </c>
-      <c r="E172" s="4">
-        <v>1.3480000000000001</v>
+      <c r="E172" s="9">
+        <v>1348</v>
       </c>
       <c r="F172" s="4">
         <v>855</v>
@@ -7784,8 +7799,8 @@
       <c r="G172" s="4">
         <v>671</v>
       </c>
-      <c r="H172" s="4">
-        <v>1.022</v>
+      <c r="H172" s="9">
+        <v>1022</v>
       </c>
       <c r="I172" s="4">
         <v>502</v>
@@ -7800,7 +7815,7 @@
         <v>34</v>
       </c>
       <c r="M172" s="5">
-        <v>4.5229999999999997</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7814,8 +7829,8 @@
       <c r="D173" s="4">
         <v>71</v>
       </c>
-      <c r="E173" s="4">
-        <v>2.2360000000000002</v>
+      <c r="E173" s="9">
+        <v>2236</v>
       </c>
       <c r="F173" s="4">
         <v>564</v>
@@ -7839,7 +7854,7 @@
         <v>28</v>
       </c>
       <c r="M173" s="5">
-        <v>4.4669999999999996</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7855,8 +7870,8 @@
       <c r="D174" s="4">
         <v>23</v>
       </c>
-      <c r="E174" s="4">
-        <v>1.4630000000000001</v>
+      <c r="E174" s="9">
+        <v>1463</v>
       </c>
       <c r="F174" s="4">
         <v>841</v>
@@ -7880,7 +7895,7 @@
         <v>50</v>
       </c>
       <c r="M174" s="5">
-        <v>4.1340000000000003</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7894,8 +7909,8 @@
       <c r="D175" s="4">
         <v>193</v>
       </c>
-      <c r="E175" s="4">
-        <v>2.42</v>
+      <c r="E175" s="9">
+        <v>2420</v>
       </c>
       <c r="F175" s="4">
         <v>510</v>
@@ -7919,7 +7934,7 @@
         <v>52</v>
       </c>
       <c r="M175" s="5">
-        <v>4.3600000000000003</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7935,8 +7950,8 @@
       <c r="D176" s="4">
         <v>60</v>
       </c>
-      <c r="E176" s="4">
-        <v>2.1269999999999998</v>
+      <c r="E176" s="9">
+        <v>2127</v>
       </c>
       <c r="F176" s="4">
         <v>872</v>
@@ -7960,7 +7975,7 @@
         <v>98</v>
       </c>
       <c r="M176" s="5">
-        <v>4.7350000000000003</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7974,8 +7989,8 @@
       <c r="D177" s="4">
         <v>479</v>
       </c>
-      <c r="E177" s="4">
-        <v>2.802</v>
+      <c r="E177" s="9">
+        <v>2802</v>
       </c>
       <c r="F177" s="4">
         <v>382</v>
@@ -7999,7 +8014,7 @@
         <v>61</v>
       </c>
       <c r="M177" s="5">
-        <v>4.7469999999999999</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8015,8 +8030,8 @@
       <c r="D178" s="4">
         <v>121</v>
       </c>
-      <c r="E178" s="4">
-        <v>2.4369999999999998</v>
+      <c r="E178" s="9">
+        <v>2437</v>
       </c>
       <c r="F178" s="4">
         <v>517</v>
@@ -8040,7 +8055,7 @@
         <v>93</v>
       </c>
       <c r="M178" s="5">
-        <v>4.2939999999999996</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8054,8 +8069,8 @@
       <c r="D179" s="4">
         <v>770</v>
       </c>
-      <c r="E179" s="4">
-        <v>2.3580000000000001</v>
+      <c r="E179" s="9">
+        <v>2358</v>
       </c>
       <c r="F179" s="4">
         <v>191</v>
@@ -8079,7 +8094,7 @@
         <v>60</v>
       </c>
       <c r="M179" s="5">
-        <v>4.1669999999999998</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8095,8 +8110,8 @@
       <c r="D180" s="4">
         <v>254</v>
       </c>
-      <c r="E180" s="4">
-        <v>2.2000000000000002</v>
+      <c r="E180" s="9">
+        <v>2200</v>
       </c>
       <c r="F180" s="4">
         <v>190</v>
@@ -8120,7 +8135,7 @@
         <v>85</v>
       </c>
       <c r="M180" s="5">
-        <v>3.4729999999999999</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8131,11 +8146,11 @@
       <c r="C181" s="4">
         <v>480</v>
       </c>
-      <c r="D181" s="4">
-        <v>1.0880000000000001</v>
-      </c>
-      <c r="E181" s="4">
-        <v>1.5509999999999999</v>
+      <c r="D181" s="9">
+        <v>1088</v>
+      </c>
+      <c r="E181" s="9">
+        <v>1551</v>
       </c>
       <c r="F181" s="4">
         <v>61</v>
@@ -8159,7 +8174,7 @@
         <v>77</v>
       </c>
       <c r="M181" s="5">
-        <v>3.5419999999999998</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8175,8 +8190,8 @@
       <c r="D182" s="4">
         <v>444</v>
       </c>
-      <c r="E182" s="4">
-        <v>1.552</v>
+      <c r="E182" s="9">
+        <v>1552</v>
       </c>
       <c r="F182" s="4">
         <v>74</v>
@@ -8200,7 +8215,7 @@
         <v>40</v>
       </c>
       <c r="M182" s="5">
-        <v>2.5190000000000001</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8211,8 +8226,8 @@
       <c r="C183" s="4">
         <v>520</v>
       </c>
-      <c r="D183" s="4">
-        <v>1.1839999999999999</v>
+      <c r="D183" s="9">
+        <v>1184</v>
       </c>
       <c r="E183" s="4">
         <v>817</v>
@@ -8239,7 +8254,7 @@
         <v>53</v>
       </c>
       <c r="M183" s="5">
-        <v>2.714</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8255,8 +8270,8 @@
       <c r="D184" s="4">
         <v>979</v>
       </c>
-      <c r="E184" s="4">
-        <v>1.1830000000000001</v>
+      <c r="E184" s="9">
+        <v>1183</v>
       </c>
       <c r="F184" s="4">
         <v>24</v>
@@ -8280,7 +8295,7 @@
         <v>51</v>
       </c>
       <c r="M184" s="5">
-        <v>2.6120000000000001</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8288,11 +8303,11 @@
       <c r="B185" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C185" s="4">
-        <v>1.165</v>
-      </c>
-      <c r="D185" s="4">
-        <v>2.1040000000000001</v>
+      <c r="C185" s="9">
+        <v>1165</v>
+      </c>
+      <c r="D185" s="9">
+        <v>2104</v>
       </c>
       <c r="E185" s="4">
         <v>706</v>
@@ -8319,46 +8334,46 @@
         <v>73</v>
       </c>
       <c r="M185" s="5">
-        <v>4.1379999999999999</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
+      <c r="B186" s="7"/>
       <c r="C186" s="5">
-        <v>3.1339999999999999</v>
+        <v>3134</v>
       </c>
       <c r="D186" s="5">
-        <v>8.1</v>
+        <v>8100</v>
       </c>
       <c r="E186" s="5">
-        <v>30.457000000000001</v>
+        <v>30457</v>
       </c>
       <c r="F186" s="5">
-        <v>11.003</v>
+        <v>11003</v>
       </c>
       <c r="G186" s="5">
-        <v>14.815</v>
+        <v>14815</v>
       </c>
       <c r="H186" s="5">
-        <v>23.405999999999999</v>
+        <v>23406</v>
       </c>
       <c r="I186" s="5">
-        <v>13.157999999999999</v>
-      </c>
-      <c r="J186" s="5">
+        <v>13158</v>
+      </c>
+      <c r="J186" s="6">
         <v>874</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="6">
         <v>77</v>
       </c>
       <c r="L186" s="5">
-        <v>1.113</v>
+        <v>1113</v>
       </c>
       <c r="M186" s="5">
-        <v>106.137</v>
+        <v>106137</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8422,8 +8437,8 @@
       <c r="G188" s="4">
         <v>401</v>
       </c>
-      <c r="H188" s="4">
-        <v>1.2749999999999999</v>
+      <c r="H188" s="9">
+        <v>1275</v>
       </c>
       <c r="I188" s="4">
         <v>221</v>
@@ -8438,7 +8453,7 @@
         <v>16</v>
       </c>
       <c r="M188" s="5">
-        <v>1.929</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8461,8 +8476,8 @@
       <c r="G189" s="4">
         <v>362</v>
       </c>
-      <c r="H189" s="4">
-        <v>1.1339999999999999</v>
+      <c r="H189" s="9">
+        <v>1134</v>
       </c>
       <c r="I189" s="4">
         <v>364</v>
@@ -8477,7 +8492,7 @@
         <v>2</v>
       </c>
       <c r="M189" s="5">
-        <v>1.873</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8518,7 +8533,7 @@
         <v>10</v>
       </c>
       <c r="M190" s="5">
-        <v>1.0860000000000001</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8557,7 +8572,7 @@
         <v>3</v>
       </c>
       <c r="M191" s="5">
-        <v>1.1279999999999999</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8598,7 +8613,7 @@
         <v>3</v>
       </c>
       <c r="M192" s="5">
-        <v>1.018</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8636,7 +8651,7 @@
       <c r="L193" s="4">
         <v>3</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="6">
         <v>982</v>
       </c>
     </row>
@@ -8678,7 +8693,7 @@
         <v>4</v>
       </c>
       <c r="M194" s="5">
-        <v>1.1359999999999999</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8717,7 +8732,7 @@
         <v>5</v>
       </c>
       <c r="M195" s="5">
-        <v>1.121</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8758,7 +8773,7 @@
         <v>3</v>
       </c>
       <c r="M196" s="5">
-        <v>1.194</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8797,7 +8812,7 @@
         <v>4</v>
       </c>
       <c r="M197" s="5">
-        <v>1.222</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8838,7 +8853,7 @@
         <v>7</v>
       </c>
       <c r="M198" s="5">
-        <v>1.107</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8877,7 +8892,7 @@
         <v>7</v>
       </c>
       <c r="M199" s="5">
-        <v>1.232</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8918,7 +8933,7 @@
         <v>12</v>
       </c>
       <c r="M200" s="5">
-        <v>1.159</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8957,7 +8972,7 @@
         <v>9</v>
       </c>
       <c r="M201" s="5">
-        <v>1.2370000000000001</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8998,7 +9013,7 @@
         <v>19</v>
       </c>
       <c r="M202" s="5">
-        <v>1.3959999999999999</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9037,7 +9052,7 @@
         <v>13</v>
       </c>
       <c r="M203" s="5">
-        <v>1.458</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9078,7 +9093,7 @@
         <v>13</v>
       </c>
       <c r="M204" s="5">
-        <v>1.3560000000000001</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9117,7 +9132,7 @@
         <v>10</v>
       </c>
       <c r="M205" s="5">
-        <v>1.3180000000000001</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9158,7 +9173,7 @@
         <v>7</v>
       </c>
       <c r="M206" s="5">
-        <v>1.302</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9197,7 +9212,7 @@
         <v>9</v>
       </c>
       <c r="M207" s="5">
-        <v>1.2370000000000001</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9237,7 +9252,7 @@
       <c r="L208" s="4">
         <v>10</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="6">
         <v>894</v>
       </c>
     </row>
@@ -9277,7 +9292,7 @@
         <v>15</v>
       </c>
       <c r="M209" s="5">
-        <v>1.0900000000000001</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9318,7 +9333,7 @@
         <v>20</v>
       </c>
       <c r="M210" s="5">
-        <v>1.177</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9357,46 +9372,46 @@
         <v>13</v>
       </c>
       <c r="M211" s="5">
-        <v>1.6240000000000001</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="6">
         <v>751</v>
       </c>
       <c r="D212" s="5">
-        <v>2.5459999999999998</v>
+        <v>2546</v>
       </c>
       <c r="E212" s="5">
-        <v>9.984</v>
+        <v>9984</v>
       </c>
       <c r="F212" s="5">
-        <v>2.4420000000000002</v>
+        <v>2442</v>
       </c>
       <c r="G212" s="5">
-        <v>3.69</v>
+        <v>3690</v>
       </c>
       <c r="H212" s="5">
-        <v>6.72</v>
+        <v>6720</v>
       </c>
       <c r="I212" s="5">
-        <v>3.5859999999999999</v>
-      </c>
-      <c r="J212" s="5">
+        <v>3586</v>
+      </c>
+      <c r="J212" s="6">
         <v>317</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="6">
         <v>23</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="6">
         <v>217</v>
       </c>
       <c r="M212" s="5">
-        <v>30.276</v>
+        <v>30276</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9457,14 +9472,14 @@
       <c r="F214" s="4">
         <v>2</v>
       </c>
-      <c r="G214" s="4">
-        <v>2.7469999999999999</v>
-      </c>
-      <c r="H214" s="4">
-        <v>9.8650000000000002</v>
-      </c>
-      <c r="I214" s="4">
-        <v>2.1280000000000001</v>
+      <c r="G214" s="9">
+        <v>2747</v>
+      </c>
+      <c r="H214" s="9">
+        <v>9865</v>
+      </c>
+      <c r="I214" s="9">
+        <v>2128</v>
       </c>
       <c r="J214" s="4">
         <v>22</v>
@@ -9476,7 +9491,7 @@
         <v>92</v>
       </c>
       <c r="M214" s="5">
-        <v>14.897</v>
+        <v>14897</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9496,14 +9511,14 @@
       <c r="F215" s="4">
         <v>1</v>
       </c>
-      <c r="G215" s="4">
-        <v>1.998</v>
-      </c>
-      <c r="H215" s="4">
-        <v>9.9749999999999996</v>
-      </c>
-      <c r="I215" s="4">
-        <v>3.3109999999999999</v>
+      <c r="G215" s="9">
+        <v>1998</v>
+      </c>
+      <c r="H215" s="9">
+        <v>9975</v>
+      </c>
+      <c r="I215" s="9">
+        <v>3311</v>
       </c>
       <c r="J215" s="4">
         <v>23</v>
@@ -9515,7 +9530,7 @@
         <v>34</v>
       </c>
       <c r="M215" s="5">
-        <v>15.403</v>
+        <v>15403</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9537,14 +9552,14 @@
       <c r="F216" s="4">
         <v>34</v>
       </c>
-      <c r="G216" s="4">
-        <v>2.246</v>
-      </c>
-      <c r="H216" s="4">
-        <v>3.68</v>
-      </c>
-      <c r="I216" s="4">
-        <v>4.4000000000000004</v>
+      <c r="G216" s="9">
+        <v>2246</v>
+      </c>
+      <c r="H216" s="9">
+        <v>3680</v>
+      </c>
+      <c r="I216" s="9">
+        <v>4400</v>
       </c>
       <c r="J216" s="4">
         <v>263</v>
@@ -9556,7 +9571,7 @@
         <v>50</v>
       </c>
       <c r="M216" s="5">
-        <v>10.709</v>
+        <v>10709</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9576,14 +9591,14 @@
       <c r="F217" s="4">
         <v>50</v>
       </c>
-      <c r="G217" s="4">
-        <v>1.7709999999999999</v>
-      </c>
-      <c r="H217" s="4">
-        <v>2.9630000000000001</v>
-      </c>
-      <c r="I217" s="4">
-        <v>5.4489999999999998</v>
+      <c r="G217" s="9">
+        <v>1771</v>
+      </c>
+      <c r="H217" s="9">
+        <v>2963</v>
+      </c>
+      <c r="I217" s="9">
+        <v>5449</v>
       </c>
       <c r="J217" s="4">
         <v>430</v>
@@ -9595,7 +9610,7 @@
         <v>39</v>
       </c>
       <c r="M217" s="5">
-        <v>10.803000000000001</v>
+        <v>10803</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9614,17 +9629,17 @@
       <c r="E218" s="4">
         <v>38</v>
       </c>
-      <c r="F218" s="4">
-        <v>1.1539999999999999</v>
-      </c>
-      <c r="G218" s="4">
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="H218" s="4">
-        <v>3.9670000000000001</v>
-      </c>
-      <c r="I218" s="4">
-        <v>3.8650000000000002</v>
+      <c r="F218" s="9">
+        <v>1154</v>
+      </c>
+      <c r="G218" s="9">
+        <v>1062</v>
+      </c>
+      <c r="H218" s="9">
+        <v>3967</v>
+      </c>
+      <c r="I218" s="9">
+        <v>3865</v>
       </c>
       <c r="J218" s="4">
         <v>317</v>
@@ -9636,7 +9651,7 @@
         <v>48</v>
       </c>
       <c r="M218" s="5">
-        <v>10.507</v>
+        <v>10507</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9653,17 +9668,17 @@
       <c r="E219" s="4">
         <v>83</v>
       </c>
-      <c r="F219" s="4">
-        <v>1.3129999999999999</v>
-      </c>
-      <c r="G219" s="4">
-        <v>1.0309999999999999</v>
-      </c>
-      <c r="H219" s="4">
-        <v>3.5059999999999998</v>
-      </c>
-      <c r="I219" s="4">
-        <v>4.7249999999999996</v>
+      <c r="F219" s="9">
+        <v>1313</v>
+      </c>
+      <c r="G219" s="9">
+        <v>1031</v>
+      </c>
+      <c r="H219" s="9">
+        <v>3506</v>
+      </c>
+      <c r="I219" s="9">
+        <v>4725</v>
       </c>
       <c r="J219" s="4">
         <v>437</v>
@@ -9675,7 +9690,7 @@
         <v>50</v>
       </c>
       <c r="M219" s="5">
-        <v>11.27</v>
+        <v>11270</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9694,17 +9709,17 @@
       <c r="E220" s="4">
         <v>438</v>
       </c>
-      <c r="F220" s="4">
-        <v>1.6319999999999999</v>
-      </c>
-      <c r="G220" s="4">
-        <v>1.044</v>
-      </c>
-      <c r="H220" s="4">
-        <v>4.641</v>
-      </c>
-      <c r="I220" s="4">
-        <v>3.536</v>
+      <c r="F220" s="9">
+        <v>1632</v>
+      </c>
+      <c r="G220" s="9">
+        <v>1044</v>
+      </c>
+      <c r="H220" s="9">
+        <v>4641</v>
+      </c>
+      <c r="I220" s="9">
+        <v>3536</v>
       </c>
       <c r="J220" s="4">
         <v>416</v>
@@ -9716,7 +9731,7 @@
         <v>42</v>
       </c>
       <c r="M220" s="5">
-        <v>11.84</v>
+        <v>11840</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9730,20 +9745,20 @@
       <c r="D221" s="4">
         <v>71</v>
       </c>
-      <c r="E221" s="4">
-        <v>1.3360000000000001</v>
-      </c>
-      <c r="F221" s="4">
-        <v>1.548</v>
-      </c>
-      <c r="G221" s="4">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="H221" s="4">
-        <v>4.0419999999999998</v>
-      </c>
-      <c r="I221" s="4">
-        <v>3.6850000000000001</v>
+      <c r="E221" s="9">
+        <v>1336</v>
+      </c>
+      <c r="F221" s="9">
+        <v>1548</v>
+      </c>
+      <c r="G221" s="9">
+        <v>1187</v>
+      </c>
+      <c r="H221" s="9">
+        <v>4042</v>
+      </c>
+      <c r="I221" s="9">
+        <v>3685</v>
       </c>
       <c r="J221" s="4">
         <v>417</v>
@@ -9755,7 +9770,7 @@
         <v>56</v>
       </c>
       <c r="M221" s="5">
-        <v>12.407999999999999</v>
+        <v>12408</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9774,17 +9789,17 @@
       <c r="E222" s="4">
         <v>907</v>
       </c>
-      <c r="F222" s="4">
-        <v>1.665</v>
-      </c>
-      <c r="G222" s="4">
-        <v>1.851</v>
-      </c>
-      <c r="H222" s="4">
-        <v>4.915</v>
-      </c>
-      <c r="I222" s="4">
-        <v>3.1549999999999998</v>
+      <c r="F222" s="9">
+        <v>1665</v>
+      </c>
+      <c r="G222" s="9">
+        <v>1851</v>
+      </c>
+      <c r="H222" s="9">
+        <v>4915</v>
+      </c>
+      <c r="I222" s="9">
+        <v>3155</v>
       </c>
       <c r="J222" s="4">
         <v>520</v>
@@ -9796,7 +9811,7 @@
         <v>66</v>
       </c>
       <c r="M222" s="5">
-        <v>13.18</v>
+        <v>13180</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9810,20 +9825,20 @@
       <c r="D223" s="4">
         <v>67</v>
       </c>
-      <c r="E223" s="4">
-        <v>2.2269999999999999</v>
-      </c>
-      <c r="F223" s="4">
-        <v>1.399</v>
-      </c>
-      <c r="G223" s="4">
-        <v>1.8939999999999999</v>
-      </c>
-      <c r="H223" s="4">
-        <v>4.5490000000000004</v>
-      </c>
-      <c r="I223" s="4">
-        <v>3.2639999999999998</v>
+      <c r="E223" s="9">
+        <v>2227</v>
+      </c>
+      <c r="F223" s="9">
+        <v>1399</v>
+      </c>
+      <c r="G223" s="9">
+        <v>1894</v>
+      </c>
+      <c r="H223" s="9">
+        <v>4549</v>
+      </c>
+      <c r="I223" s="9">
+        <v>3264</v>
       </c>
       <c r="J223" s="4">
         <v>499</v>
@@ -9835,7 +9850,7 @@
         <v>63</v>
       </c>
       <c r="M223" s="5">
-        <v>14.038</v>
+        <v>14038</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9851,20 +9866,20 @@
       <c r="D224" s="4">
         <v>27</v>
       </c>
-      <c r="E224" s="4">
-        <v>1.165</v>
-      </c>
-      <c r="F224" s="4">
-        <v>1.7769999999999999</v>
-      </c>
-      <c r="G224" s="4">
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="H224" s="4">
-        <v>4.0430000000000001</v>
-      </c>
-      <c r="I224" s="4">
-        <v>2.7690000000000001</v>
+      <c r="E224" s="9">
+        <v>1165</v>
+      </c>
+      <c r="F224" s="9">
+        <v>1777</v>
+      </c>
+      <c r="G224" s="9">
+        <v>1567</v>
+      </c>
+      <c r="H224" s="9">
+        <v>4043</v>
+      </c>
+      <c r="I224" s="9">
+        <v>2769</v>
       </c>
       <c r="J224" s="4">
         <v>396</v>
@@ -9876,7 +9891,7 @@
         <v>66</v>
       </c>
       <c r="M224" s="5">
-        <v>11.897</v>
+        <v>11897</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9890,20 +9905,20 @@
       <c r="D225" s="4">
         <v>74</v>
       </c>
-      <c r="E225" s="4">
-        <v>2.5459999999999998</v>
-      </c>
-      <c r="F225" s="4">
-        <v>1.534</v>
-      </c>
-      <c r="G225" s="4">
-        <v>1.6779999999999999</v>
-      </c>
-      <c r="H225" s="4">
-        <v>3.8250000000000002</v>
-      </c>
-      <c r="I225" s="4">
-        <v>2.452</v>
+      <c r="E225" s="9">
+        <v>2546</v>
+      </c>
+      <c r="F225" s="9">
+        <v>1534</v>
+      </c>
+      <c r="G225" s="9">
+        <v>1678</v>
+      </c>
+      <c r="H225" s="9">
+        <v>3825</v>
+      </c>
+      <c r="I225" s="9">
+        <v>2452</v>
       </c>
       <c r="J225" s="4">
         <v>248</v>
@@ -9915,7 +9930,7 @@
         <v>60</v>
       </c>
       <c r="M225" s="5">
-        <v>12.497999999999999</v>
+        <v>12498</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9931,20 +9946,20 @@
       <c r="D226" s="4">
         <v>29</v>
       </c>
-      <c r="E226" s="4">
-        <v>1.335</v>
-      </c>
-      <c r="F226" s="4">
-        <v>1.84</v>
-      </c>
-      <c r="G226" s="4">
-        <v>1.639</v>
-      </c>
-      <c r="H226" s="4">
-        <v>2.9750000000000001</v>
-      </c>
-      <c r="I226" s="4">
-        <v>2.2090000000000001</v>
+      <c r="E226" s="9">
+        <v>1335</v>
+      </c>
+      <c r="F226" s="9">
+        <v>1840</v>
+      </c>
+      <c r="G226" s="9">
+        <v>1639</v>
+      </c>
+      <c r="H226" s="9">
+        <v>2975</v>
+      </c>
+      <c r="I226" s="9">
+        <v>2209</v>
       </c>
       <c r="J226" s="4">
         <v>257</v>
@@ -9956,7 +9971,7 @@
         <v>94</v>
       </c>
       <c r="M226" s="5">
-        <v>10.462999999999999</v>
+        <v>10463</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9970,20 +9985,20 @@
       <c r="D227" s="4">
         <v>132</v>
       </c>
-      <c r="E227" s="4">
-        <v>3.0179999999999998</v>
-      </c>
-      <c r="F227" s="4">
-        <v>1.389</v>
-      </c>
-      <c r="G227" s="4">
-        <v>1.617</v>
-      </c>
-      <c r="H227" s="4">
-        <v>2.9239999999999999</v>
-      </c>
-      <c r="I227" s="4">
-        <v>1.59</v>
+      <c r="E227" s="9">
+        <v>3018</v>
+      </c>
+      <c r="F227" s="9">
+        <v>1389</v>
+      </c>
+      <c r="G227" s="9">
+        <v>1617</v>
+      </c>
+      <c r="H227" s="9">
+        <v>2924</v>
+      </c>
+      <c r="I227" s="9">
+        <v>1590</v>
       </c>
       <c r="J227" s="4">
         <v>155</v>
@@ -9995,7 +10010,7 @@
         <v>103</v>
       </c>
       <c r="M227" s="5">
-        <v>11.041</v>
+        <v>11041</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10011,20 +10026,20 @@
       <c r="D228" s="4">
         <v>48</v>
       </c>
-      <c r="E228" s="4">
-        <v>1.89</v>
-      </c>
-      <c r="F228" s="4">
-        <v>1.5229999999999999</v>
-      </c>
-      <c r="G228" s="4">
-        <v>1.601</v>
-      </c>
-      <c r="H228" s="4">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="I228" s="4">
-        <v>1.6240000000000001</v>
+      <c r="E228" s="9">
+        <v>1890</v>
+      </c>
+      <c r="F228" s="9">
+        <v>1523</v>
+      </c>
+      <c r="G228" s="9">
+        <v>1601</v>
+      </c>
+      <c r="H228" s="9">
+        <v>2490</v>
+      </c>
+      <c r="I228" s="9">
+        <v>1624</v>
       </c>
       <c r="J228" s="4">
         <v>181</v>
@@ -10036,7 +10051,7 @@
         <v>129</v>
       </c>
       <c r="M228" s="5">
-        <v>9.5549999999999997</v>
+        <v>9555</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10050,20 +10065,20 @@
       <c r="D229" s="4">
         <v>321</v>
       </c>
-      <c r="E229" s="4">
-        <v>4.0469999999999997</v>
+      <c r="E229" s="9">
+        <v>4047</v>
       </c>
       <c r="F229" s="4">
         <v>978</v>
       </c>
-      <c r="G229" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="H229" s="4">
-        <v>2.3420000000000001</v>
-      </c>
-      <c r="I229" s="4">
-        <v>1.0609999999999999</v>
+      <c r="G229" s="9">
+        <v>1400</v>
+      </c>
+      <c r="H229" s="9">
+        <v>2342</v>
+      </c>
+      <c r="I229" s="9">
+        <v>1061</v>
       </c>
       <c r="J229" s="4">
         <v>100</v>
@@ -10075,7 +10090,7 @@
         <v>141</v>
       </c>
       <c r="M229" s="5">
-        <v>10.566000000000001</v>
+        <v>10566</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10091,20 +10106,20 @@
       <c r="D230" s="4">
         <v>89</v>
       </c>
-      <c r="E230" s="4">
-        <v>2.4569999999999999</v>
+      <c r="E230" s="9">
+        <v>2457</v>
       </c>
       <c r="F230" s="4">
         <v>770</v>
       </c>
-      <c r="G230" s="4">
-        <v>1.0369999999999999</v>
-      </c>
-      <c r="H230" s="4">
-        <v>2.327</v>
-      </c>
-      <c r="I230" s="4">
-        <v>1.1950000000000001</v>
+      <c r="G230" s="9">
+        <v>1037</v>
+      </c>
+      <c r="H230" s="9">
+        <v>2327</v>
+      </c>
+      <c r="I230" s="9">
+        <v>1195</v>
       </c>
       <c r="J230" s="4">
         <v>112</v>
@@ -10116,7 +10131,7 @@
         <v>125</v>
       </c>
       <c r="M230" s="5">
-        <v>8.1630000000000003</v>
+        <v>8163</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10130,8 +10145,8 @@
       <c r="D231" s="4">
         <v>523</v>
       </c>
-      <c r="E231" s="4">
-        <v>4.2210000000000001</v>
+      <c r="E231" s="9">
+        <v>4221</v>
       </c>
       <c r="F231" s="4">
         <v>455</v>
@@ -10139,8 +10154,8 @@
       <c r="G231" s="4">
         <v>886</v>
       </c>
-      <c r="H231" s="4">
-        <v>1.792</v>
+      <c r="H231" s="9">
+        <v>1792</v>
       </c>
       <c r="I231" s="4">
         <v>713</v>
@@ -10155,7 +10170,7 @@
         <v>105</v>
       </c>
       <c r="M231" s="5">
-        <v>9.0210000000000008</v>
+        <v>9021</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10171,8 +10186,8 @@
       <c r="D232" s="4">
         <v>153</v>
       </c>
-      <c r="E232" s="4">
-        <v>2.5670000000000002</v>
+      <c r="E232" s="9">
+        <v>2567</v>
       </c>
       <c r="F232" s="4">
         <v>290</v>
@@ -10180,11 +10195,11 @@
       <c r="G232" s="4">
         <v>791</v>
       </c>
-      <c r="H232" s="4">
-        <v>1.39</v>
-      </c>
-      <c r="I232" s="4">
-        <v>1.0940000000000001</v>
+      <c r="H232" s="9">
+        <v>1390</v>
+      </c>
+      <c r="I232" s="9">
+        <v>1094</v>
       </c>
       <c r="J232" s="4">
         <v>68</v>
@@ -10196,7 +10211,7 @@
         <v>96</v>
       </c>
       <c r="M232" s="5">
-        <v>6.5229999999999997</v>
+        <v>6523</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10210,8 +10225,8 @@
       <c r="D233" s="4">
         <v>902</v>
       </c>
-      <c r="E233" s="4">
-        <v>3.5019999999999998</v>
+      <c r="E233" s="9">
+        <v>3502</v>
       </c>
       <c r="F233" s="4">
         <v>144</v>
@@ -10235,7 +10250,7 @@
         <v>95</v>
       </c>
       <c r="M233" s="5">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10251,8 +10266,8 @@
       <c r="D234" s="4">
         <v>209</v>
       </c>
-      <c r="E234" s="4">
-        <v>2.0459999999999998</v>
+      <c r="E234" s="9">
+        <v>2046</v>
       </c>
       <c r="F234" s="4">
         <v>74</v>
@@ -10276,7 +10291,7 @@
         <v>63</v>
       </c>
       <c r="M234" s="5">
-        <v>4.3559999999999999</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10287,11 +10302,11 @@
       <c r="C235" s="4">
         <v>676</v>
       </c>
-      <c r="D235" s="4">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="E235" s="4">
-        <v>2.4489999999999998</v>
+      <c r="D235" s="9">
+        <v>1025</v>
+      </c>
+      <c r="E235" s="9">
+        <v>2449</v>
       </c>
       <c r="F235" s="4">
         <v>15</v>
@@ -10315,7 +10330,7 @@
         <v>78</v>
       </c>
       <c r="M235" s="5">
-        <v>5.53</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10331,8 +10346,8 @@
       <c r="D236" s="4">
         <v>519</v>
       </c>
-      <c r="E236" s="4">
-        <v>2.3450000000000002</v>
+      <c r="E236" s="9">
+        <v>2345</v>
       </c>
       <c r="F236" s="4">
         <v>25</v>
@@ -10356,7 +10371,7 @@
         <v>95</v>
       </c>
       <c r="M236" s="5">
-        <v>4.9050000000000002</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10364,14 +10379,14 @@
       <c r="B237" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C237" s="4">
-        <v>1.74</v>
-      </c>
-      <c r="D237" s="4">
-        <v>2.173</v>
-      </c>
-      <c r="E237" s="4">
-        <v>2.9350000000000001</v>
+      <c r="C237" s="9">
+        <v>1740</v>
+      </c>
+      <c r="D237" s="9">
+        <v>2173</v>
+      </c>
+      <c r="E237" s="9">
+        <v>2935</v>
       </c>
       <c r="F237" s="4">
         <v>14</v>
@@ -10395,46 +10410,46 @@
         <v>111</v>
       </c>
       <c r="M237" s="5">
-        <v>8.1270000000000007</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
+      <c r="B238" s="7"/>
       <c r="C238" s="5">
-        <v>3.895</v>
+        <v>3895</v>
       </c>
       <c r="D238" s="5">
-        <v>6.6920000000000002</v>
+        <v>6692</v>
       </c>
       <c r="E238" s="5">
-        <v>41.674999999999997</v>
+        <v>41675</v>
       </c>
       <c r="F238" s="5">
-        <v>19.626000000000001</v>
+        <v>19626</v>
       </c>
       <c r="G238" s="5">
-        <v>31.315999999999999</v>
+        <v>31316</v>
       </c>
       <c r="H238" s="5">
-        <v>79.503</v>
+        <v>79503</v>
       </c>
       <c r="I238" s="5">
-        <v>54.74</v>
+        <v>54740</v>
       </c>
       <c r="J238" s="5">
-        <v>5.0709999999999997</v>
-      </c>
-      <c r="K238" s="5">
+        <v>5071</v>
+      </c>
+      <c r="K238" s="6">
         <v>631</v>
       </c>
       <c r="L238" s="5">
-        <v>1.901</v>
+        <v>1901</v>
       </c>
       <c r="M238" s="5">
-        <v>245.05</v>
+        <v>245050</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10514,7 +10529,7 @@
         <v>9</v>
       </c>
       <c r="M240" s="5">
-        <v>1.0880000000000001</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10553,7 +10568,7 @@
         <v>1</v>
       </c>
       <c r="M241" s="5">
-        <v>1.069</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10593,7 +10608,7 @@
       <c r="L242" s="4">
         <v>2</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="6">
         <v>810</v>
       </c>
     </row>
@@ -10632,7 +10647,7 @@
       <c r="L243" s="4">
         <v>2</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243" s="6">
         <v>751</v>
       </c>
     </row>
@@ -10673,7 +10688,7 @@
       <c r="L244" s="4">
         <v>1</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244" s="6">
         <v>768</v>
       </c>
     </row>
@@ -10712,7 +10727,7 @@
       <c r="L245" s="4">
         <v>1</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245" s="6">
         <v>664</v>
       </c>
     </row>
@@ -10753,7 +10768,7 @@
       <c r="L246" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M246" s="5">
+      <c r="M246" s="6">
         <v>696</v>
       </c>
     </row>
@@ -10792,7 +10807,7 @@
       <c r="L247" s="4">
         <v>1</v>
       </c>
-      <c r="M247" s="5">
+      <c r="M247" s="6">
         <v>513</v>
       </c>
     </row>
@@ -10833,7 +10848,7 @@
       <c r="L248" s="4">
         <v>1</v>
       </c>
-      <c r="M248" s="5">
+      <c r="M248" s="6">
         <v>698</v>
       </c>
     </row>
@@ -10872,7 +10887,7 @@
       <c r="L249" s="4">
         <v>2</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="6">
         <v>661</v>
       </c>
     </row>
@@ -10913,7 +10928,7 @@
       <c r="L250" s="4">
         <v>2</v>
       </c>
-      <c r="M250" s="5">
+      <c r="M250" s="6">
         <v>675</v>
       </c>
     </row>
@@ -10952,7 +10967,7 @@
       <c r="L251" s="4">
         <v>1</v>
       </c>
-      <c r="M251" s="5">
+      <c r="M251" s="6">
         <v>626</v>
       </c>
     </row>
@@ -10993,7 +11008,7 @@
       <c r="L252" s="4">
         <v>5</v>
       </c>
-      <c r="M252" s="5">
+      <c r="M252" s="6">
         <v>737</v>
       </c>
     </row>
@@ -11032,7 +11047,7 @@
       <c r="L253" s="4">
         <v>4</v>
       </c>
-      <c r="M253" s="5">
+      <c r="M253" s="6">
         <v>727</v>
       </c>
     </row>
@@ -11073,7 +11088,7 @@
       <c r="L254" s="4">
         <v>3</v>
       </c>
-      <c r="M254" s="5">
+      <c r="M254" s="6">
         <v>819</v>
       </c>
     </row>
@@ -11112,7 +11127,7 @@
       <c r="L255" s="4">
         <v>4</v>
       </c>
-      <c r="M255" s="5">
+      <c r="M255" s="6">
         <v>829</v>
       </c>
     </row>
@@ -11153,7 +11168,7 @@
       <c r="L256" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M256" s="5">
+      <c r="M256" s="6">
         <v>801</v>
       </c>
     </row>
@@ -11192,7 +11207,7 @@
       <c r="L257" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M257" s="5">
+      <c r="M257" s="6">
         <v>822</v>
       </c>
     </row>
@@ -11233,7 +11248,7 @@
       <c r="L258" s="4">
         <v>2</v>
       </c>
-      <c r="M258" s="5">
+      <c r="M258" s="6">
         <v>752</v>
       </c>
     </row>
@@ -11272,7 +11287,7 @@
       <c r="L259" s="4">
         <v>2</v>
       </c>
-      <c r="M259" s="5">
+      <c r="M259" s="6">
         <v>753</v>
       </c>
     </row>
@@ -11313,7 +11328,7 @@
       <c r="L260" s="4">
         <v>1</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="6">
         <v>556</v>
       </c>
     </row>
@@ -11352,7 +11367,7 @@
       <c r="L261" s="4">
         <v>2</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="6">
         <v>620</v>
       </c>
     </row>
@@ -11393,7 +11408,7 @@
       <c r="L262" s="4">
         <v>3</v>
       </c>
-      <c r="M262" s="5">
+      <c r="M262" s="6">
         <v>760</v>
       </c>
     </row>
@@ -11433,46 +11448,46 @@
         <v>9</v>
       </c>
       <c r="M263" s="5">
-        <v>1.0780000000000001</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="6">
         <v>431</v>
       </c>
       <c r="D264" s="5">
-        <v>1.9239999999999999</v>
+        <v>1924</v>
       </c>
       <c r="E264" s="5">
-        <v>4.923</v>
+        <v>4923</v>
       </c>
       <c r="F264" s="5">
-        <v>1.843</v>
+        <v>1843</v>
       </c>
       <c r="G264" s="5">
-        <v>2.496</v>
+        <v>2496</v>
       </c>
       <c r="H264" s="5">
-        <v>4.2569999999999997</v>
+        <v>4257</v>
       </c>
       <c r="I264" s="5">
-        <v>2.21</v>
-      </c>
-      <c r="J264" s="5">
+        <v>2210</v>
+      </c>
+      <c r="J264" s="6">
         <v>122</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="6">
         <v>9</v>
       </c>
-      <c r="L264" s="5">
+      <c r="L264" s="6">
         <v>58</v>
       </c>
       <c r="M264" s="5">
-        <v>18.273</v>
+        <v>18273</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -11551,7 +11566,7 @@
       <c r="L266" s="4">
         <v>8</v>
       </c>
-      <c r="M266" s="5">
+      <c r="M266" s="6">
         <v>660</v>
       </c>
     </row>
@@ -11590,7 +11605,7 @@
       <c r="L267" s="4">
         <v>2</v>
       </c>
-      <c r="M267" s="5">
+      <c r="M267" s="6">
         <v>699</v>
       </c>
     </row>
@@ -11631,7 +11646,7 @@
       <c r="L268" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M268" s="5">
+      <c r="M268" s="6">
         <v>480</v>
       </c>
     </row>
@@ -11670,7 +11685,7 @@
       <c r="L269" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M269" s="5">
+      <c r="M269" s="6">
         <v>431</v>
       </c>
     </row>
@@ -11711,7 +11726,7 @@
       <c r="L270" s="4">
         <v>2</v>
       </c>
-      <c r="M270" s="5">
+      <c r="M270" s="6">
         <v>423</v>
       </c>
     </row>
@@ -11750,7 +11765,7 @@
       <c r="L271" s="4">
         <v>2</v>
       </c>
-      <c r="M271" s="5">
+      <c r="M271" s="6">
         <v>409</v>
       </c>
     </row>
@@ -11791,7 +11806,7 @@
       <c r="L272" s="4">
         <v>1</v>
       </c>
-      <c r="M272" s="5">
+      <c r="M272" s="6">
         <v>435</v>
       </c>
     </row>
@@ -11830,7 +11845,7 @@
       <c r="L273" s="4">
         <v>1</v>
       </c>
-      <c r="M273" s="5">
+      <c r="M273" s="6">
         <v>366</v>
       </c>
     </row>
@@ -11871,7 +11886,7 @@
       <c r="L274" s="4">
         <v>2</v>
       </c>
-      <c r="M274" s="5">
+      <c r="M274" s="6">
         <v>449</v>
       </c>
     </row>
@@ -11910,7 +11925,7 @@
       <c r="L275" s="4">
         <v>1</v>
       </c>
-      <c r="M275" s="5">
+      <c r="M275" s="6">
         <v>426</v>
       </c>
     </row>
@@ -11951,7 +11966,7 @@
       <c r="L276" s="4">
         <v>1</v>
       </c>
-      <c r="M276" s="5">
+      <c r="M276" s="6">
         <v>433</v>
       </c>
     </row>
@@ -11990,7 +12005,7 @@
       <c r="L277" s="4">
         <v>3</v>
       </c>
-      <c r="M277" s="5">
+      <c r="M277" s="6">
         <v>500</v>
       </c>
     </row>
@@ -12031,7 +12046,7 @@
       <c r="L278" s="4">
         <v>4</v>
       </c>
-      <c r="M278" s="5">
+      <c r="M278" s="6">
         <v>518</v>
       </c>
     </row>
@@ -12070,7 +12085,7 @@
       <c r="L279" s="4">
         <v>3</v>
       </c>
-      <c r="M279" s="5">
+      <c r="M279" s="6">
         <v>605</v>
       </c>
     </row>
@@ -12111,7 +12126,7 @@
       <c r="L280" s="4">
         <v>4</v>
       </c>
-      <c r="M280" s="5">
+      <c r="M280" s="6">
         <v>627</v>
       </c>
     </row>
@@ -12150,7 +12165,7 @@
       <c r="L281" s="4">
         <v>5</v>
       </c>
-      <c r="M281" s="5">
+      <c r="M281" s="6">
         <v>669</v>
       </c>
     </row>
@@ -12191,7 +12206,7 @@
       <c r="L282" s="4">
         <v>3</v>
       </c>
-      <c r="M282" s="5">
+      <c r="M282" s="6">
         <v>718</v>
       </c>
     </row>
@@ -12230,7 +12245,7 @@
       <c r="L283" s="4">
         <v>4</v>
       </c>
-      <c r="M283" s="5">
+      <c r="M283" s="6">
         <v>641</v>
       </c>
     </row>
@@ -12271,7 +12286,7 @@
       <c r="L284" s="4">
         <v>5</v>
       </c>
-      <c r="M284" s="5">
+      <c r="M284" s="6">
         <v>531</v>
       </c>
     </row>
@@ -12310,7 +12325,7 @@
       <c r="L285" s="4">
         <v>3</v>
       </c>
-      <c r="M285" s="5">
+      <c r="M285" s="6">
         <v>605</v>
       </c>
     </row>
@@ -12351,7 +12366,7 @@
       <c r="L286" s="4">
         <v>4</v>
       </c>
-      <c r="M286" s="5">
+      <c r="M286" s="6">
         <v>476</v>
       </c>
     </row>
@@ -12390,7 +12405,7 @@
       <c r="L287" s="4">
         <v>7</v>
       </c>
-      <c r="M287" s="5">
+      <c r="M287" s="6">
         <v>614</v>
       </c>
     </row>
@@ -12431,7 +12446,7 @@
       <c r="L288" s="4">
         <v>12</v>
       </c>
-      <c r="M288" s="5">
+      <c r="M288" s="6">
         <v>695</v>
       </c>
     </row>
@@ -12470,7 +12485,7 @@
       <c r="L289" s="4">
         <v>7</v>
       </c>
-      <c r="M289" s="5">
+      <c r="M289" s="6">
         <v>896</v>
       </c>
     </row>
@@ -12478,39 +12493,39 @@
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
+      <c r="B290" s="7"/>
+      <c r="C290" s="6">
         <v>234</v>
       </c>
       <c r="D290" s="5">
-        <v>1.1020000000000001</v>
+        <v>1102</v>
       </c>
       <c r="E290" s="5">
-        <v>4.415</v>
-      </c>
-      <c r="F290" s="5">
+        <v>4415</v>
+      </c>
+      <c r="F290" s="6">
         <v>901</v>
       </c>
       <c r="G290" s="5">
-        <v>1.587</v>
+        <v>1587</v>
       </c>
       <c r="H290" s="5">
-        <v>3.0110000000000001</v>
+        <v>3011</v>
       </c>
       <c r="I290" s="5">
-        <v>1.827</v>
-      </c>
-      <c r="J290" s="5">
+        <v>1827</v>
+      </c>
+      <c r="J290" s="6">
         <v>137</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="6">
         <v>8</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="6">
         <v>84</v>
       </c>
       <c r="M290" s="5">
-        <v>13.305999999999999</v>
+        <v>13306</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12590,7 +12605,7 @@
         <v>8</v>
       </c>
       <c r="M292" s="5">
-        <v>1.026</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12629,7 +12644,7 @@
         <v>2</v>
       </c>
       <c r="M293" s="5">
-        <v>1.004</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12669,7 +12684,7 @@
       <c r="L294" s="4">
         <v>2</v>
       </c>
-      <c r="M294" s="5">
+      <c r="M294" s="6">
         <v>631</v>
       </c>
     </row>
@@ -12708,7 +12723,7 @@
       <c r="L295" s="4">
         <v>1</v>
       </c>
-      <c r="M295" s="5">
+      <c r="M295" s="6">
         <v>511</v>
       </c>
     </row>
@@ -12749,7 +12764,7 @@
       <c r="L296" s="4">
         <v>1</v>
       </c>
-      <c r="M296" s="5">
+      <c r="M296" s="6">
         <v>505</v>
       </c>
     </row>
@@ -12788,7 +12803,7 @@
       <c r="L297" s="4">
         <v>1</v>
       </c>
-      <c r="M297" s="5">
+      <c r="M297" s="6">
         <v>424</v>
       </c>
     </row>
@@ -12829,7 +12844,7 @@
       <c r="L298" s="4">
         <v>5</v>
       </c>
-      <c r="M298" s="5">
+      <c r="M298" s="6">
         <v>520</v>
       </c>
     </row>
@@ -12868,7 +12883,7 @@
       <c r="L299" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M299" s="5">
+      <c r="M299" s="6">
         <v>433</v>
       </c>
     </row>
@@ -12909,7 +12924,7 @@
       <c r="L300" s="4">
         <v>3</v>
       </c>
-      <c r="M300" s="5">
+      <c r="M300" s="6">
         <v>629</v>
       </c>
     </row>
@@ -12948,7 +12963,7 @@
       <c r="L301" s="4">
         <v>1</v>
       </c>
-      <c r="M301" s="5">
+      <c r="M301" s="6">
         <v>548</v>
       </c>
     </row>
@@ -12989,7 +13004,7 @@
       <c r="L302" s="4">
         <v>7</v>
       </c>
-      <c r="M302" s="5">
+      <c r="M302" s="6">
         <v>660</v>
       </c>
     </row>
@@ -13028,7 +13043,7 @@
       <c r="L303" s="4">
         <v>3</v>
       </c>
-      <c r="M303" s="5">
+      <c r="M303" s="6">
         <v>640</v>
       </c>
     </row>
@@ -13069,7 +13084,7 @@
       <c r="L304" s="4">
         <v>3</v>
       </c>
-      <c r="M304" s="5">
+      <c r="M304" s="6">
         <v>723</v>
       </c>
     </row>
@@ -13108,7 +13123,7 @@
       <c r="L305" s="4">
         <v>2</v>
       </c>
-      <c r="M305" s="5">
+      <c r="M305" s="6">
         <v>615</v>
       </c>
     </row>
@@ -13149,7 +13164,7 @@
       <c r="L306" s="4">
         <v>4</v>
       </c>
-      <c r="M306" s="5">
+      <c r="M306" s="6">
         <v>844</v>
       </c>
     </row>
@@ -13188,7 +13203,7 @@
       <c r="L307" s="4">
         <v>1</v>
       </c>
-      <c r="M307" s="5">
+      <c r="M307" s="6">
         <v>743</v>
       </c>
     </row>
@@ -13229,7 +13244,7 @@
       <c r="L308" s="4">
         <v>2</v>
       </c>
-      <c r="M308" s="5">
+      <c r="M308" s="6">
         <v>779</v>
       </c>
     </row>
@@ -13268,7 +13283,7 @@
       <c r="L309" s="4">
         <v>2</v>
       </c>
-      <c r="M309" s="5">
+      <c r="M309" s="6">
         <v>661</v>
       </c>
     </row>
@@ -13309,7 +13324,7 @@
       <c r="L310" s="4">
         <v>4</v>
       </c>
-      <c r="M310" s="5">
+      <c r="M310" s="6">
         <v>663</v>
       </c>
     </row>
@@ -13348,7 +13363,7 @@
       <c r="L311" s="4">
         <v>3</v>
       </c>
-      <c r="M311" s="5">
+      <c r="M311" s="6">
         <v>631</v>
       </c>
     </row>
@@ -13389,7 +13404,7 @@
       <c r="L312" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M312" s="5">
+      <c r="M312" s="6">
         <v>480</v>
       </c>
     </row>
@@ -13428,7 +13443,7 @@
       <c r="L313" s="4">
         <v>3</v>
       </c>
-      <c r="M313" s="5">
+      <c r="M313" s="6">
         <v>504</v>
       </c>
     </row>
@@ -13469,7 +13484,7 @@
       <c r="L314" s="4">
         <v>6</v>
       </c>
-      <c r="M314" s="5">
+      <c r="M314" s="6">
         <v>574</v>
       </c>
     </row>
@@ -13508,7 +13523,7 @@
       <c r="L315" s="4">
         <v>7</v>
       </c>
-      <c r="M315" s="5">
+      <c r="M315" s="6">
         <v>871</v>
       </c>
     </row>
@@ -13516,39 +13531,39 @@
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
+      <c r="B316" s="7"/>
+      <c r="C316" s="6">
         <v>284</v>
       </c>
       <c r="D316" s="5">
-        <v>2.3050000000000002</v>
+        <v>2305</v>
       </c>
       <c r="E316" s="5">
-        <v>5.0209999999999999</v>
+        <v>5021</v>
       </c>
       <c r="F316" s="5">
-        <v>2.0019999999999998</v>
+        <v>2002</v>
       </c>
       <c r="G316" s="5">
-        <v>2.1389999999999998</v>
+        <v>2139</v>
       </c>
       <c r="H316" s="5">
-        <v>2.6389999999999998</v>
+        <v>2639</v>
       </c>
       <c r="I316" s="5">
-        <v>1.091</v>
-      </c>
-      <c r="J316" s="5">
+        <v>1091</v>
+      </c>
+      <c r="J316" s="6">
         <v>58</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="6">
         <v>9</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="6">
         <v>71</v>
       </c>
       <c r="M316" s="5">
-        <v>15.619</v>
+        <v>15619</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -13612,8 +13627,8 @@
       <c r="G318" s="4">
         <v>660</v>
       </c>
-      <c r="H318" s="4">
-        <v>1.8660000000000001</v>
+      <c r="H318" s="9">
+        <v>1866</v>
       </c>
       <c r="I318" s="4">
         <v>386</v>
@@ -13628,7 +13643,7 @@
         <v>23</v>
       </c>
       <c r="M318" s="5">
-        <v>2.95</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13651,8 +13666,8 @@
       <c r="G319" s="4">
         <v>578</v>
       </c>
-      <c r="H319" s="4">
-        <v>1.7450000000000001</v>
+      <c r="H319" s="9">
+        <v>1745</v>
       </c>
       <c r="I319" s="4">
         <v>575</v>
@@ -13667,7 +13682,7 @@
         <v>6</v>
       </c>
       <c r="M319" s="5">
-        <v>2.931</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13708,7 +13723,7 @@
         <v>6</v>
       </c>
       <c r="M320" s="5">
-        <v>2.1669999999999998</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13747,7 +13762,7 @@
         <v>3</v>
       </c>
       <c r="M321" s="5">
-        <v>2.1469999999999998</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13788,7 +13803,7 @@
         <v>2</v>
       </c>
       <c r="M322" s="5">
-        <v>2.1440000000000001</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -13827,7 +13842,7 @@
         <v>7</v>
       </c>
       <c r="M323" s="5">
-        <v>1.952</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -13868,7 +13883,7 @@
         <v>2</v>
       </c>
       <c r="M324" s="5">
-        <v>2.1070000000000002</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13907,7 +13922,7 @@
         <v>1</v>
       </c>
       <c r="M325" s="5">
-        <v>1.931</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -13948,7 +13963,7 @@
         <v>12</v>
       </c>
       <c r="M326" s="5">
-        <v>2.19</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13987,7 +14002,7 @@
         <v>9</v>
       </c>
       <c r="M327" s="5">
-        <v>2.0430000000000001</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -14028,7 +14043,7 @@
         <v>10</v>
       </c>
       <c r="M328" s="5">
-        <v>1.929</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14067,7 +14082,7 @@
         <v>10</v>
       </c>
       <c r="M329" s="5">
-        <v>1.8009999999999999</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14108,7 +14123,7 @@
         <v>17</v>
       </c>
       <c r="M330" s="5">
-        <v>1.726</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14147,7 +14162,7 @@
         <v>10</v>
       </c>
       <c r="M331" s="5">
-        <v>1.784</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14188,7 +14203,7 @@
         <v>33</v>
       </c>
       <c r="M332" s="5">
-        <v>1.8320000000000001</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14202,8 +14217,8 @@
       <c r="D333" s="4">
         <v>109</v>
       </c>
-      <c r="E333" s="4">
-        <v>1.0840000000000001</v>
+      <c r="E333" s="9">
+        <v>1084</v>
       </c>
       <c r="F333" s="4">
         <v>202</v>
@@ -14227,7 +14242,7 @@
         <v>25</v>
       </c>
       <c r="M333" s="5">
-        <v>1.8180000000000001</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14268,7 +14283,7 @@
         <v>25</v>
       </c>
       <c r="M334" s="5">
-        <v>1.6639999999999999</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14282,8 +14297,8 @@
       <c r="D335" s="4">
         <v>178</v>
       </c>
-      <c r="E335" s="4">
-        <v>1.016</v>
+      <c r="E335" s="9">
+        <v>1016</v>
       </c>
       <c r="F335" s="4">
         <v>84</v>
@@ -14307,7 +14322,7 @@
         <v>14</v>
       </c>
       <c r="M335" s="5">
-        <v>1.5780000000000001</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14348,7 +14363,7 @@
         <v>16</v>
       </c>
       <c r="M336" s="5">
-        <v>1.26</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -14387,7 +14402,7 @@
         <v>14</v>
       </c>
       <c r="M337" s="5">
-        <v>1.3160000000000001</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14427,7 +14442,7 @@
       <c r="L338" s="4">
         <v>12</v>
       </c>
-      <c r="M338" s="5">
+      <c r="M338" s="6">
         <v>829</v>
       </c>
     </row>
@@ -14466,7 +14481,7 @@
       <c r="L339" s="4">
         <v>13</v>
       </c>
-      <c r="M339" s="5">
+      <c r="M339" s="6">
         <v>930</v>
       </c>
     </row>
@@ -14507,7 +14522,7 @@
       <c r="L340" s="4">
         <v>6</v>
       </c>
-      <c r="M340" s="5">
+      <c r="M340" s="6">
         <v>895</v>
       </c>
     </row>
@@ -14547,46 +14562,46 @@
         <v>17</v>
       </c>
       <c r="M341" s="5">
-        <v>1.419</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
-      <c r="C342" s="5">
+      <c r="B342" s="7"/>
+      <c r="C342" s="6">
         <v>900</v>
       </c>
       <c r="D342" s="5">
-        <v>1.91</v>
+        <v>1910</v>
       </c>
       <c r="E342" s="5">
-        <v>11.335000000000001</v>
+        <v>11335</v>
       </c>
       <c r="F342" s="5">
-        <v>4.891</v>
+        <v>4891</v>
       </c>
       <c r="G342" s="5">
-        <v>6.633</v>
+        <v>6633</v>
       </c>
       <c r="H342" s="5">
-        <v>11.394</v>
+        <v>11394</v>
       </c>
       <c r="I342" s="5">
-        <v>5.6890000000000001</v>
-      </c>
-      <c r="J342" s="5">
+        <v>5689</v>
+      </c>
+      <c r="J342" s="6">
         <v>280</v>
       </c>
-      <c r="K342" s="5">
+      <c r="K342" s="6">
         <v>18</v>
       </c>
-      <c r="L342" s="5">
+      <c r="L342" s="6">
         <v>293</v>
       </c>
       <c r="M342" s="5">
-        <v>43.343000000000004</v>
+        <v>43343</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -14650,8 +14665,8 @@
       <c r="G344" s="4">
         <v>676</v>
       </c>
-      <c r="H344" s="4">
-        <v>2.21</v>
+      <c r="H344" s="9">
+        <v>2210</v>
       </c>
       <c r="I344" s="4">
         <v>467</v>
@@ -14666,7 +14681,7 @@
         <v>33</v>
       </c>
       <c r="M344" s="5">
-        <v>3.4220000000000002</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14689,8 +14704,8 @@
       <c r="G345" s="4">
         <v>486</v>
       </c>
-      <c r="H345" s="4">
-        <v>2.165</v>
+      <c r="H345" s="9">
+        <v>2165</v>
       </c>
       <c r="I345" s="4">
         <v>706</v>
@@ -14705,7 +14720,7 @@
         <v>10</v>
       </c>
       <c r="M345" s="5">
-        <v>3.4129999999999998</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14746,7 +14761,7 @@
         <v>20</v>
       </c>
       <c r="M346" s="5">
-        <v>2.0630000000000002</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -14785,7 +14800,7 @@
         <v>10</v>
       </c>
       <c r="M347" s="5">
-        <v>2.081</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -14826,7 +14841,7 @@
         <v>10</v>
       </c>
       <c r="M348" s="5">
-        <v>1.879</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -14865,7 +14880,7 @@
         <v>10</v>
       </c>
       <c r="M349" s="5">
-        <v>1.8580000000000001</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -14906,7 +14921,7 @@
         <v>15</v>
       </c>
       <c r="M350" s="5">
-        <v>2.008</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
@@ -14945,7 +14960,7 @@
         <v>7</v>
       </c>
       <c r="M351" s="5">
-        <v>1.9239999999999999</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -14986,7 +15001,7 @@
         <v>18</v>
       </c>
       <c r="M352" s="5">
-        <v>2.2570000000000001</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
@@ -15025,7 +15040,7 @@
         <v>10</v>
       </c>
       <c r="M353" s="5">
-        <v>2.3479999999999999</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -15066,7 +15081,7 @@
         <v>15</v>
       </c>
       <c r="M354" s="5">
-        <v>2.294</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -15105,7 +15120,7 @@
         <v>16</v>
       </c>
       <c r="M355" s="5">
-        <v>2.282</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -15146,7 +15161,7 @@
         <v>19</v>
       </c>
       <c r="M356" s="5">
-        <v>2.4430000000000001</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -15160,8 +15175,8 @@
       <c r="D357" s="4">
         <v>113</v>
       </c>
-      <c r="E357" s="4">
-        <v>1.196</v>
+      <c r="E357" s="9">
+        <v>1196</v>
       </c>
       <c r="F357" s="4">
         <v>295</v>
@@ -15185,7 +15200,7 @@
         <v>22</v>
       </c>
       <c r="M357" s="5">
-        <v>2.472</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
@@ -15201,8 +15216,8 @@
       <c r="D358" s="4">
         <v>44</v>
       </c>
-      <c r="E358" s="4">
-        <v>1.0469999999999999</v>
+      <c r="E358" s="9">
+        <v>1047</v>
       </c>
       <c r="F358" s="4">
         <v>429</v>
@@ -15226,7 +15241,7 @@
         <v>44</v>
       </c>
       <c r="M358" s="5">
-        <v>2.879</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -15240,8 +15255,8 @@
       <c r="D359" s="4">
         <v>233</v>
       </c>
-      <c r="E359" s="4">
-        <v>1.617</v>
+      <c r="E359" s="9">
+        <v>1617</v>
       </c>
       <c r="F359" s="4">
         <v>251</v>
@@ -15265,7 +15280,7 @@
         <v>27</v>
       </c>
       <c r="M359" s="5">
-        <v>2.8769999999999998</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -15281,8 +15296,8 @@
       <c r="D360" s="4">
         <v>77</v>
       </c>
-      <c r="E360" s="4">
-        <v>1.415</v>
+      <c r="E360" s="9">
+        <v>1415</v>
       </c>
       <c r="F360" s="4">
         <v>283</v>
@@ -15306,7 +15321,7 @@
         <v>35</v>
       </c>
       <c r="M360" s="5">
-        <v>2.8239999999999998</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -15320,8 +15335,8 @@
       <c r="D361" s="4">
         <v>552</v>
       </c>
-      <c r="E361" s="4">
-        <v>1.5109999999999999</v>
+      <c r="E361" s="9">
+        <v>1511</v>
       </c>
       <c r="F361" s="4">
         <v>111</v>
@@ -15345,7 +15360,7 @@
         <v>26</v>
       </c>
       <c r="M361" s="5">
-        <v>2.7309999999999999</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -15361,8 +15376,8 @@
       <c r="D362" s="4">
         <v>162</v>
       </c>
-      <c r="E362" s="4">
-        <v>1.3839999999999999</v>
+      <c r="E362" s="9">
+        <v>1384</v>
       </c>
       <c r="F362" s="4">
         <v>147</v>
@@ -15386,7 +15401,7 @@
         <v>37</v>
       </c>
       <c r="M362" s="5">
-        <v>2.407</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -15400,8 +15415,8 @@
       <c r="D363" s="4">
         <v>887</v>
       </c>
-      <c r="E363" s="4">
-        <v>1.0680000000000001</v>
+      <c r="E363" s="9">
+        <v>1068</v>
       </c>
       <c r="F363" s="4">
         <v>43</v>
@@ -15425,7 +15440,7 @@
         <v>32</v>
       </c>
       <c r="M363" s="5">
-        <v>2.4689999999999999</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -15441,8 +15456,8 @@
       <c r="D364" s="4">
         <v>291</v>
       </c>
-      <c r="E364" s="4">
-        <v>1.002</v>
+      <c r="E364" s="9">
+        <v>1002</v>
       </c>
       <c r="F364" s="4">
         <v>34</v>
@@ -15466,7 +15481,7 @@
         <v>14</v>
       </c>
       <c r="M364" s="5">
-        <v>1.675</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -15505,7 +15520,7 @@
         <v>15</v>
       </c>
       <c r="M365" s="5">
-        <v>1.847</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -15546,7 +15561,7 @@
         <v>19</v>
       </c>
       <c r="M366" s="5">
-        <v>1.956</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -15557,8 +15572,8 @@
       <c r="C367" s="4">
         <v>525</v>
       </c>
-      <c r="D367" s="4">
-        <v>1.929</v>
+      <c r="D367" s="9">
+        <v>1929</v>
       </c>
       <c r="E367" s="4">
         <v>409</v>
@@ -15585,46 +15600,46 @@
         <v>28</v>
       </c>
       <c r="M367" s="5">
-        <v>2.9580000000000002</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="6"/>
+      <c r="B368" s="7"/>
       <c r="C368" s="5">
-        <v>1.323</v>
+        <v>1323</v>
       </c>
       <c r="D368" s="5">
-        <v>6.3449999999999998</v>
+        <v>6345</v>
       </c>
       <c r="E368" s="5">
-        <v>16.312999999999999</v>
+        <v>16313</v>
       </c>
       <c r="F368" s="5">
-        <v>4.6040000000000001</v>
+        <v>4604</v>
       </c>
       <c r="G368" s="5">
-        <v>7.56</v>
+        <v>7560</v>
       </c>
       <c r="H368" s="5">
-        <v>13.564</v>
+        <v>13564</v>
       </c>
       <c r="I368" s="5">
-        <v>6.6509999999999998</v>
-      </c>
-      <c r="J368" s="5">
+        <v>6651</v>
+      </c>
+      <c r="J368" s="6">
         <v>466</v>
       </c>
-      <c r="K368" s="5">
+      <c r="K368" s="6">
         <v>49</v>
       </c>
-      <c r="L368" s="5">
+      <c r="L368" s="6">
         <v>492</v>
       </c>
       <c r="M368" s="5">
-        <v>57.366999999999997</v>
+        <v>57367</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -15685,11 +15700,11 @@
       <c r="F370" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G370" s="4">
-        <v>1.8580000000000001</v>
-      </c>
-      <c r="H370" s="4">
-        <v>2.839</v>
+      <c r="G370" s="9">
+        <v>1858</v>
+      </c>
+      <c r="H370" s="9">
+        <v>2839</v>
       </c>
       <c r="I370" s="4">
         <v>422</v>
@@ -15704,7 +15719,7 @@
         <v>59</v>
       </c>
       <c r="M370" s="5">
-        <v>5.1950000000000003</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -15724,11 +15739,11 @@
       <c r="F371" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G371" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="H371" s="4">
-        <v>3.0219999999999998</v>
+      <c r="G371" s="9">
+        <v>1530</v>
+      </c>
+      <c r="H371" s="9">
+        <v>3022</v>
       </c>
       <c r="I371" s="4">
         <v>836</v>
@@ -15743,7 +15758,7 @@
         <v>2</v>
       </c>
       <c r="M371" s="5">
-        <v>5.4260000000000002</v>
+        <v>5426</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -15765,8 +15780,8 @@
       <c r="F372" s="4">
         <v>18</v>
       </c>
-      <c r="G372" s="4">
-        <v>1.1080000000000001</v>
+      <c r="G372" s="9">
+        <v>1108</v>
       </c>
       <c r="H372" s="4">
         <v>804</v>
@@ -15784,7 +15799,7 @@
         <v>30</v>
       </c>
       <c r="M372" s="5">
-        <v>2.7170000000000001</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
@@ -15804,8 +15819,8 @@
       <c r="F373" s="4">
         <v>72</v>
       </c>
-      <c r="G373" s="4">
-        <v>1.1220000000000001</v>
+      <c r="G373" s="9">
+        <v>1122</v>
       </c>
       <c r="H373" s="4">
         <v>549</v>
@@ -15823,7 +15838,7 @@
         <v>15</v>
       </c>
       <c r="M373" s="5">
-        <v>2.8639999999999999</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -15864,7 +15879,7 @@
         <v>4</v>
       </c>
       <c r="M374" s="5">
-        <v>2.7839999999999998</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
@@ -15903,7 +15918,7 @@
         <v>6</v>
       </c>
       <c r="M375" s="5">
-        <v>2.8650000000000002</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -15944,7 +15959,7 @@
         <v>8</v>
       </c>
       <c r="M376" s="5">
-        <v>2.8690000000000002</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -15958,8 +15973,8 @@
       <c r="D377" s="4">
         <v>98</v>
       </c>
-      <c r="E377" s="4">
-        <v>1.02</v>
+      <c r="E377" s="9">
+        <v>1020</v>
       </c>
       <c r="F377" s="4">
         <v>637</v>
@@ -15983,7 +15998,7 @@
         <v>5</v>
       </c>
       <c r="M377" s="5">
-        <v>2.8250000000000002</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -16024,7 +16039,7 @@
         <v>2</v>
       </c>
       <c r="M378" s="5">
-        <v>2.76</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -16038,8 +16053,8 @@
       <c r="D379" s="4">
         <v>102</v>
       </c>
-      <c r="E379" s="4">
-        <v>1.496</v>
+      <c r="E379" s="9">
+        <v>1496</v>
       </c>
       <c r="F379" s="4">
         <v>354</v>
@@ -16063,7 +16078,7 @@
         <v>5</v>
       </c>
       <c r="M379" s="5">
-        <v>2.8879999999999999</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
@@ -16104,7 +16119,7 @@
         <v>3</v>
       </c>
       <c r="M380" s="5">
-        <v>2.407</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -16118,8 +16133,8 @@
       <c r="D381" s="4">
         <v>132</v>
       </c>
-      <c r="E381" s="4">
-        <v>1.3959999999999999</v>
+      <c r="E381" s="9">
+        <v>1396</v>
       </c>
       <c r="F381" s="4">
         <v>336</v>
@@ -16143,7 +16158,7 @@
         <v>4</v>
       </c>
       <c r="M381" s="5">
-        <v>2.4830000000000001</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
@@ -16159,8 +16174,8 @@
       <c r="D382" s="4">
         <v>29</v>
       </c>
-      <c r="E382" s="4">
-        <v>1.0069999999999999</v>
+      <c r="E382" s="9">
+        <v>1007</v>
       </c>
       <c r="F382" s="4">
         <v>453</v>
@@ -16184,7 +16199,7 @@
         <v>8</v>
       </c>
       <c r="M382" s="5">
-        <v>2.5299999999999998</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -16198,8 +16213,8 @@
       <c r="D383" s="4">
         <v>232</v>
       </c>
-      <c r="E383" s="4">
-        <v>1.609</v>
+      <c r="E383" s="9">
+        <v>1609</v>
       </c>
       <c r="F383" s="4">
         <v>332</v>
@@ -16223,7 +16238,7 @@
         <v>6</v>
       </c>
       <c r="M383" s="5">
-        <v>2.63</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -16239,8 +16254,8 @@
       <c r="D384" s="4">
         <v>59</v>
       </c>
-      <c r="E384" s="4">
-        <v>1.26</v>
+      <c r="E384" s="9">
+        <v>1260</v>
       </c>
       <c r="F384" s="4">
         <v>374</v>
@@ -16264,7 +16279,7 @@
         <v>7</v>
       </c>
       <c r="M384" s="5">
-        <v>2.5449999999999999</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
@@ -16278,8 +16293,8 @@
       <c r="D385" s="4">
         <v>447</v>
       </c>
-      <c r="E385" s="4">
-        <v>1.694</v>
+      <c r="E385" s="9">
+        <v>1694</v>
       </c>
       <c r="F385" s="4">
         <v>223</v>
@@ -16303,7 +16318,7 @@
         <v>6</v>
       </c>
       <c r="M385" s="5">
-        <v>2.77</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
@@ -16319,8 +16334,8 @@
       <c r="D386" s="4">
         <v>111</v>
       </c>
-      <c r="E386" s="4">
-        <v>1.361</v>
+      <c r="E386" s="9">
+        <v>1361</v>
       </c>
       <c r="F386" s="4">
         <v>243</v>
@@ -16344,7 +16359,7 @@
         <v>5</v>
       </c>
       <c r="M386" s="5">
-        <v>2.3919999999999999</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -16358,8 +16373,8 @@
       <c r="D387" s="4">
         <v>552</v>
       </c>
-      <c r="E387" s="4">
-        <v>1.4630000000000001</v>
+      <c r="E387" s="9">
+        <v>1463</v>
       </c>
       <c r="F387" s="4">
         <v>90</v>
@@ -16383,7 +16398,7 @@
         <v>9</v>
       </c>
       <c r="M387" s="5">
-        <v>2.4470000000000001</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
@@ -16399,8 +16414,8 @@
       <c r="D388" s="4">
         <v>223</v>
       </c>
-      <c r="E388" s="4">
-        <v>1.181</v>
+      <c r="E388" s="9">
+        <v>1181</v>
       </c>
       <c r="F388" s="4">
         <v>104</v>
@@ -16424,7 +16439,7 @@
         <v>1</v>
       </c>
       <c r="M388" s="5">
-        <v>1.8939999999999999</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
@@ -16438,8 +16453,8 @@
       <c r="D389" s="4">
         <v>763</v>
       </c>
-      <c r="E389" s="4">
-        <v>1.0169999999999999</v>
+      <c r="E389" s="9">
+        <v>1017</v>
       </c>
       <c r="F389" s="4">
         <v>34</v>
@@ -16463,7 +16478,7 @@
         <v>4</v>
       </c>
       <c r="M389" s="5">
-        <v>2.1949999999999998</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
@@ -16504,7 +16519,7 @@
         <v>4</v>
       </c>
       <c r="M390" s="5">
-        <v>1.4379999999999999</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
@@ -16543,7 +16558,7 @@
         <v>6</v>
       </c>
       <c r="M391" s="5">
-        <v>1.6779999999999999</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
@@ -16584,7 +16599,7 @@
         <v>8</v>
       </c>
       <c r="M392" s="5">
-        <v>1.774</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
@@ -16623,46 +16638,46 @@
         <v>8</v>
       </c>
       <c r="M393" s="5">
-        <v>2.3410000000000002</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B394" s="6"/>
+      <c r="B394" s="7"/>
       <c r="C394" s="5">
-        <v>2.0739999999999998</v>
+        <v>2074</v>
       </c>
       <c r="D394" s="5">
-        <v>5.7519999999999998</v>
+        <v>5752</v>
       </c>
       <c r="E394" s="5">
-        <v>19.584</v>
+        <v>19584</v>
       </c>
       <c r="F394" s="5">
-        <v>6.6349999999999998</v>
+        <v>6635</v>
       </c>
       <c r="G394" s="5">
-        <v>10.34</v>
+        <v>10340</v>
       </c>
       <c r="H394" s="5">
-        <v>13.182</v>
+        <v>13182</v>
       </c>
       <c r="I394" s="5">
-        <v>6.3070000000000004</v>
-      </c>
-      <c r="J394" s="5">
+        <v>6307</v>
+      </c>
+      <c r="J394" s="6">
         <v>578</v>
       </c>
-      <c r="K394" s="5">
+      <c r="K394" s="6">
         <v>50</v>
       </c>
-      <c r="L394" s="5">
+      <c r="L394" s="6">
         <v>215</v>
       </c>
       <c r="M394" s="5">
-        <v>64.716999999999999</v>
+        <v>64717</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -16741,7 +16756,7 @@
       <c r="L396" s="4">
         <v>6</v>
       </c>
-      <c r="M396" s="5">
+      <c r="M396" s="6">
         <v>381</v>
       </c>
     </row>
@@ -16780,7 +16795,7 @@
       <c r="L397" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M397" s="5">
+      <c r="M397" s="6">
         <v>393</v>
       </c>
     </row>
@@ -16821,7 +16836,7 @@
       <c r="L398" s="4">
         <v>2</v>
       </c>
-      <c r="M398" s="5">
+      <c r="M398" s="6">
         <v>256</v>
       </c>
     </row>
@@ -16860,7 +16875,7 @@
       <c r="L399" s="4">
         <v>1</v>
       </c>
-      <c r="M399" s="5">
+      <c r="M399" s="6">
         <v>247</v>
       </c>
     </row>
@@ -16901,7 +16916,7 @@
       <c r="L400" s="4">
         <v>2</v>
       </c>
-      <c r="M400" s="5">
+      <c r="M400" s="6">
         <v>231</v>
       </c>
     </row>
@@ -16940,7 +16955,7 @@
       <c r="L401" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M401" s="5">
+      <c r="M401" s="6">
         <v>206</v>
       </c>
     </row>
@@ -16981,7 +16996,7 @@
       <c r="L402" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M402" s="5">
+      <c r="M402" s="6">
         <v>228</v>
       </c>
     </row>
@@ -17020,7 +17035,7 @@
       <c r="L403" s="4">
         <v>1</v>
       </c>
-      <c r="M403" s="5">
+      <c r="M403" s="6">
         <v>240</v>
       </c>
     </row>
@@ -17061,7 +17076,7 @@
       <c r="L404" s="4">
         <v>2</v>
       </c>
-      <c r="M404" s="5">
+      <c r="M404" s="6">
         <v>270</v>
       </c>
     </row>
@@ -17100,7 +17115,7 @@
       <c r="L405" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M405" s="5">
+      <c r="M405" s="6">
         <v>265</v>
       </c>
     </row>
@@ -17141,7 +17156,7 @@
       <c r="L406" s="4">
         <v>2</v>
       </c>
-      <c r="M406" s="5">
+      <c r="M406" s="6">
         <v>253</v>
       </c>
     </row>
@@ -17180,7 +17195,7 @@
       <c r="L407" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M407" s="5">
+      <c r="M407" s="6">
         <v>259</v>
       </c>
     </row>
@@ -17221,7 +17236,7 @@
       <c r="L408" s="4">
         <v>2</v>
       </c>
-      <c r="M408" s="5">
+      <c r="M408" s="6">
         <v>291</v>
       </c>
     </row>
@@ -17260,7 +17275,7 @@
       <c r="L409" s="4">
         <v>2</v>
       </c>
-      <c r="M409" s="5">
+      <c r="M409" s="6">
         <v>298</v>
       </c>
     </row>
@@ -17301,7 +17316,7 @@
       <c r="L410" s="4">
         <v>5</v>
       </c>
-      <c r="M410" s="5">
+      <c r="M410" s="6">
         <v>328</v>
       </c>
     </row>
@@ -17340,7 +17355,7 @@
       <c r="L411" s="4">
         <v>1</v>
       </c>
-      <c r="M411" s="5">
+      <c r="M411" s="6">
         <v>361</v>
       </c>
     </row>
@@ -17381,7 +17396,7 @@
       <c r="L412" s="4">
         <v>1</v>
       </c>
-      <c r="M412" s="5">
+      <c r="M412" s="6">
         <v>340</v>
       </c>
     </row>
@@ -17420,7 +17435,7 @@
       <c r="L413" s="4">
         <v>1</v>
       </c>
-      <c r="M413" s="5">
+      <c r="M413" s="6">
         <v>354</v>
       </c>
     </row>
@@ -17461,7 +17476,7 @@
       <c r="L414" s="4">
         <v>5</v>
       </c>
-      <c r="M414" s="5">
+      <c r="M414" s="6">
         <v>371</v>
       </c>
     </row>
@@ -17500,7 +17515,7 @@
       <c r="L415" s="4">
         <v>2</v>
       </c>
-      <c r="M415" s="5">
+      <c r="M415" s="6">
         <v>337</v>
       </c>
     </row>
@@ -17541,7 +17556,7 @@
       <c r="L416" s="4">
         <v>1</v>
       </c>
-      <c r="M416" s="5">
+      <c r="M416" s="6">
         <v>229</v>
       </c>
     </row>
@@ -17580,7 +17595,7 @@
       <c r="L417" s="4">
         <v>1</v>
       </c>
-      <c r="M417" s="5">
+      <c r="M417" s="6">
         <v>294</v>
       </c>
     </row>
@@ -17621,7 +17636,7 @@
       <c r="L418" s="4">
         <v>3</v>
       </c>
-      <c r="M418" s="5">
+      <c r="M418" s="6">
         <v>297</v>
       </c>
     </row>
@@ -17660,7 +17675,7 @@
       <c r="L419" s="4">
         <v>2</v>
       </c>
-      <c r="M419" s="5">
+      <c r="M419" s="6">
         <v>403</v>
       </c>
     </row>
@@ -17668,46 +17683,46 @@
       <c r="A420" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B420" s="6"/>
-      <c r="C420" s="5">
+      <c r="B420" s="7"/>
+      <c r="C420" s="6">
         <v>77</v>
       </c>
-      <c r="D420" s="5">
+      <c r="D420" s="6">
         <v>738</v>
       </c>
       <c r="E420" s="5">
-        <v>2.0150000000000001</v>
-      </c>
-      <c r="F420" s="5">
+        <v>2015</v>
+      </c>
+      <c r="F420" s="6">
         <v>684</v>
       </c>
-      <c r="G420" s="5">
+      <c r="G420" s="6">
         <v>989</v>
       </c>
       <c r="H420" s="5">
-        <v>1.4850000000000001</v>
+        <v>1485</v>
       </c>
       <c r="I420" s="5">
-        <v>1.002</v>
-      </c>
-      <c r="J420" s="5">
+        <v>1002</v>
+      </c>
+      <c r="J420" s="6">
         <v>92</v>
       </c>
-      <c r="K420" s="5">
+      <c r="K420" s="6">
         <v>8</v>
       </c>
-      <c r="L420" s="5">
+      <c r="L420" s="6">
         <v>42</v>
       </c>
       <c r="M420" s="5">
-        <v>7.1319999999999997</v>
+        <v>7132</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A421" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B421" s="9"/>
+      <c r="A421" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B421" s="12"/>
       <c r="C421" s="2" t="s">
         <v>2</v>
       </c>
@@ -17780,7 +17795,7 @@
         <v>34</v>
       </c>
       <c r="M422" s="5">
-        <v>1.3120000000000001</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
@@ -17819,7 +17834,7 @@
         <v>17</v>
       </c>
       <c r="M423" s="5">
-        <v>1.2230000000000001</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
@@ -17859,7 +17874,7 @@
       <c r="L424" s="4">
         <v>18</v>
       </c>
-      <c r="M424" s="5">
+      <c r="M424" s="6">
         <v>817</v>
       </c>
     </row>
@@ -17898,7 +17913,7 @@
       <c r="L425" s="4">
         <v>19</v>
       </c>
-      <c r="M425" s="5">
+      <c r="M425" s="6">
         <v>806</v>
       </c>
     </row>
@@ -17939,7 +17954,7 @@
       <c r="L426" s="4">
         <v>20</v>
       </c>
-      <c r="M426" s="5">
+      <c r="M426" s="6">
         <v>727</v>
       </c>
     </row>
@@ -17978,7 +17993,7 @@
       <c r="L427" s="4">
         <v>11</v>
       </c>
-      <c r="M427" s="5">
+      <c r="M427" s="6">
         <v>697</v>
       </c>
     </row>
@@ -18019,7 +18034,7 @@
       <c r="L428" s="4">
         <v>17</v>
       </c>
-      <c r="M428" s="5">
+      <c r="M428" s="6">
         <v>774</v>
       </c>
     </row>
@@ -18058,7 +18073,7 @@
       <c r="L429" s="4">
         <v>23</v>
       </c>
-      <c r="M429" s="5">
+      <c r="M429" s="6">
         <v>739</v>
       </c>
     </row>
@@ -18099,7 +18114,7 @@
       <c r="L430" s="4">
         <v>34</v>
       </c>
-      <c r="M430" s="5">
+      <c r="M430" s="6">
         <v>869</v>
       </c>
     </row>
@@ -18138,7 +18153,7 @@
       <c r="L431" s="4">
         <v>22</v>
       </c>
-      <c r="M431" s="5">
+      <c r="M431" s="6">
         <v>830</v>
       </c>
     </row>
@@ -18179,7 +18194,7 @@
       <c r="L432" s="4">
         <v>39</v>
       </c>
-      <c r="M432" s="5">
+      <c r="M432" s="6">
         <v>840</v>
       </c>
     </row>
@@ -18218,7 +18233,7 @@
       <c r="L433" s="4">
         <v>44</v>
       </c>
-      <c r="M433" s="5">
+      <c r="M433" s="6">
         <v>843</v>
       </c>
     </row>
@@ -18259,7 +18274,7 @@
       <c r="L434" s="4">
         <v>59</v>
       </c>
-      <c r="M434" s="5">
+      <c r="M434" s="6">
         <v>884</v>
       </c>
     </row>
@@ -18298,7 +18313,7 @@
       <c r="L435" s="4">
         <v>68</v>
       </c>
-      <c r="M435" s="5">
+      <c r="M435" s="6">
         <v>892</v>
       </c>
     </row>
@@ -18340,7 +18355,7 @@
         <v>76</v>
       </c>
       <c r="M436" s="5">
-        <v>1.046</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
@@ -18378,7 +18393,7 @@
       <c r="L437" s="4">
         <v>61</v>
       </c>
-      <c r="M437" s="5">
+      <c r="M437" s="6">
         <v>979</v>
       </c>
     </row>
@@ -18419,7 +18434,7 @@
       <c r="L438" s="4">
         <v>52</v>
       </c>
-      <c r="M438" s="5">
+      <c r="M438" s="6">
         <v>976</v>
       </c>
     </row>
@@ -18458,7 +18473,7 @@
       <c r="L439" s="4">
         <v>55</v>
       </c>
-      <c r="M439" s="5">
+      <c r="M439" s="6">
         <v>983</v>
       </c>
     </row>
@@ -18499,7 +18514,7 @@
       <c r="L440" s="4">
         <v>35</v>
       </c>
-      <c r="M440" s="5">
+      <c r="M440" s="6">
         <v>828</v>
       </c>
     </row>
@@ -18538,7 +18553,7 @@
       <c r="L441" s="4">
         <v>32</v>
       </c>
-      <c r="M441" s="5">
+      <c r="M441" s="6">
         <v>860</v>
       </c>
     </row>
@@ -18579,7 +18594,7 @@
       <c r="L442" s="4">
         <v>24</v>
       </c>
-      <c r="M442" s="5">
+      <c r="M442" s="6">
         <v>607</v>
       </c>
     </row>
@@ -18618,7 +18633,7 @@
       <c r="L443" s="4">
         <v>25</v>
       </c>
-      <c r="M443" s="5">
+      <c r="M443" s="6">
         <v>631</v>
       </c>
     </row>
@@ -18659,7 +18674,7 @@
       <c r="L444" s="4">
         <v>10</v>
       </c>
-      <c r="M444" s="5">
+      <c r="M444" s="6">
         <v>628</v>
       </c>
     </row>
@@ -18698,7 +18713,7 @@
       <c r="L445" s="4">
         <v>15</v>
       </c>
-      <c r="M445" s="5">
+      <c r="M445" s="6">
         <v>889</v>
       </c>
     </row>
@@ -18706,39 +18721,49 @@
       <c r="A446" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B446" s="6"/>
-      <c r="C446" s="5">
+      <c r="B446" s="7"/>
+      <c r="C446" s="6">
         <v>185</v>
       </c>
       <c r="D446" s="5">
-        <v>1.508</v>
+        <v>1508</v>
       </c>
       <c r="E446" s="5">
-        <v>5.9459999999999997</v>
+        <v>5946</v>
       </c>
       <c r="F446" s="5">
-        <v>1.978</v>
+        <v>1978</v>
       </c>
       <c r="G446" s="5">
-        <v>2.4849999999999999</v>
+        <v>2485</v>
       </c>
       <c r="H446" s="5">
-        <v>4.8250000000000002</v>
+        <v>4825</v>
       </c>
       <c r="I446" s="5">
-        <v>2.72</v>
-      </c>
-      <c r="J446" s="5">
+        <v>2720</v>
+      </c>
+      <c r="J446" s="6">
         <v>190</v>
       </c>
-      <c r="K446" s="5">
+      <c r="K446" s="6">
         <v>33</v>
       </c>
-      <c r="L446" s="5">
+      <c r="L446" s="6">
         <v>810</v>
       </c>
       <c r="M446" s="5">
-        <v>20.68</v>
+        <v>20680</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A447" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A448" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -18763,6 +18788,5 @@
     <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>